--- a/doc/進捗管理/プロトタイプ作成予定.xlsx
+++ b/doc/進捗管理/プロトタイプ作成予定.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="0" windowWidth="25200" windowHeight="12576"/>
+    <workbookView xWindow="3960" yWindow="0" windowWidth="25200" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="プロジェクト タイムライン" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Id</t>
   </si>
@@ -104,13 +104,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>エディタ（宮上）</t>
-    <rPh sb="5" eb="7">
-      <t>ミヤカミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>インタープリタデバッグ（池田・宮上）</t>
     <rPh sb="12" eb="14">
       <t>イケダ</t>
@@ -125,7 +118,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>インタープリタ結合テスト（池田・宮上）</t>
+    <t>エディタデバッグ（宮上）</t>
+    <rPh sb="9" eb="11">
+      <t>ミヤカミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インタープリタ結合テスト（池田・宮上・藤田）</t>
     <rPh sb="7" eb="9">
       <t>ケツゴウ</t>
     </rPh>
@@ -135,10 +135,23 @@
     <rPh sb="16" eb="18">
       <t>ミヤカミ</t>
     </rPh>
+    <rPh sb="19" eb="21">
+      <t>フジタ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>エディタ結合テスト（宮上・池田）</t>
+    <t>エディタ（宮上・藤田）</t>
+    <rPh sb="5" eb="7">
+      <t>ミヤカミ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>フジタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エディタ結合テスト（宮上・宮上・池田）</t>
     <rPh sb="4" eb="6">
       <t>ケツゴウ</t>
     </rPh>
@@ -146,24 +159,36 @@
       <t>ミヤカミ</t>
     </rPh>
     <rPh sb="13" eb="15">
+      <t>ミヤカミ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
       <t>イケダ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>エディタデバッグ（宮上）</t>
-    <rPh sb="9" eb="11">
-      <t>ミヤカミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>システムテストとデバッグ（池田・宮上）</t>
+    <t>システムテストとデバッグ（池田・宮上・藤田）</t>
     <rPh sb="13" eb="15">
       <t>イケダ</t>
     </rPh>
     <rPh sb="16" eb="18">
       <t>ミヤカミ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>フジタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うまくいけばブランチきる。本格的なアプリ作成開始。</t>
+    <rPh sb="13" eb="16">
+      <t>ホンカクテキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カイシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -172,10 +197,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="mmm\ yyyy"/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
-    <numFmt numFmtId="178" formatCode="mm/dd/yyyy"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -305,7 +329,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -371,9 +395,6 @@
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -624,94 +645,94 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>42594</c:v>
+                  <c:v>42657</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42595</c:v>
+                  <c:v>42658</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42596</c:v>
+                  <c:v>42659</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42597</c:v>
+                  <c:v>42660</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42598</c:v>
+                  <c:v>42661</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42599</c:v>
+                  <c:v>42662</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42600</c:v>
+                  <c:v>42663</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42601</c:v>
+                  <c:v>42664</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42602</c:v>
+                  <c:v>42665</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42603</c:v>
+                  <c:v>42666</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42604</c:v>
+                  <c:v>42667</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42605</c:v>
+                  <c:v>42668</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42606</c:v>
+                  <c:v>42669</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42607</c:v>
+                  <c:v>42670</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42608</c:v>
+                  <c:v>42671</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42609</c:v>
+                  <c:v>42672</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42610</c:v>
+                  <c:v>42673</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>42611</c:v>
+                  <c:v>42674</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>42612</c:v>
+                  <c:v>42675</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42613</c:v>
+                  <c:v>42676</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>42614</c:v>
+                  <c:v>42677</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>42615</c:v>
+                  <c:v>42678</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>42616</c:v>
+                  <c:v>42679</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>42617</c:v>
+                  <c:v>42680</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>42618</c:v>
+                  <c:v>42681</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>42619</c:v>
+                  <c:v>42682</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>42620</c:v>
+                  <c:v>42683</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>42621</c:v>
+                  <c:v>42684</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>42622</c:v>
+                  <c:v>42685</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>42623</c:v>
+                  <c:v>42686</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1014,94 +1035,94 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>42594</c:v>
+                  <c:v>42657</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42595</c:v>
+                  <c:v>42658</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42596</c:v>
+                  <c:v>42659</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42597</c:v>
+                  <c:v>42660</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42598</c:v>
+                  <c:v>42661</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42599</c:v>
+                  <c:v>42662</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42600</c:v>
+                  <c:v>42663</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42601</c:v>
+                  <c:v>42664</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42602</c:v>
+                  <c:v>42665</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42603</c:v>
+                  <c:v>42666</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42604</c:v>
+                  <c:v>42667</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42605</c:v>
+                  <c:v>42668</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42606</c:v>
+                  <c:v>42669</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42607</c:v>
+                  <c:v>42670</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42608</c:v>
+                  <c:v>42671</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42609</c:v>
+                  <c:v>42672</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42610</c:v>
+                  <c:v>42673</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>42611</c:v>
+                  <c:v>42674</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>42612</c:v>
+                  <c:v>42675</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42613</c:v>
+                  <c:v>42676</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>42614</c:v>
+                  <c:v>42677</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>42615</c:v>
+                  <c:v>42678</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>42616</c:v>
+                  <c:v>42679</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>42617</c:v>
+                  <c:v>42680</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>42618</c:v>
+                  <c:v>42681</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>42619</c:v>
+                  <c:v>42682</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>42620</c:v>
+                  <c:v>42683</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>42621</c:v>
+                  <c:v>42684</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>42622</c:v>
+                  <c:v>42685</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>42623</c:v>
+                  <c:v>42686</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1404,94 +1425,94 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>42594</c:v>
+                  <c:v>42657</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42595</c:v>
+                  <c:v>42658</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42596</c:v>
+                  <c:v>42659</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42597</c:v>
+                  <c:v>42660</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42598</c:v>
+                  <c:v>42661</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42599</c:v>
+                  <c:v>42662</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42600</c:v>
+                  <c:v>42663</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42601</c:v>
+                  <c:v>42664</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42602</c:v>
+                  <c:v>42665</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42603</c:v>
+                  <c:v>42666</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42604</c:v>
+                  <c:v>42667</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42605</c:v>
+                  <c:v>42668</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42606</c:v>
+                  <c:v>42669</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42607</c:v>
+                  <c:v>42670</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42608</c:v>
+                  <c:v>42671</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42609</c:v>
+                  <c:v>42672</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42610</c:v>
+                  <c:v>42673</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>42611</c:v>
+                  <c:v>42674</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>42612</c:v>
+                  <c:v>42675</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42613</c:v>
+                  <c:v>42676</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>42614</c:v>
+                  <c:v>42677</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>42615</c:v>
+                  <c:v>42678</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>42616</c:v>
+                  <c:v>42679</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>42617</c:v>
+                  <c:v>42680</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>42618</c:v>
+                  <c:v>42681</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>42619</c:v>
+                  <c:v>42682</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>42620</c:v>
+                  <c:v>42683</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>42621</c:v>
+                  <c:v>42684</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>42622</c:v>
+                  <c:v>42685</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>42623</c:v>
+                  <c:v>42686</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1797,94 +1818,94 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>42594</c:v>
+                  <c:v>42657</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42595</c:v>
+                  <c:v>42658</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42596</c:v>
+                  <c:v>42659</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42597</c:v>
+                  <c:v>42660</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42598</c:v>
+                  <c:v>42661</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42599</c:v>
+                  <c:v>42662</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42600</c:v>
+                  <c:v>42663</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42601</c:v>
+                  <c:v>42664</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42602</c:v>
+                  <c:v>42665</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42603</c:v>
+                  <c:v>42666</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42604</c:v>
+                  <c:v>42667</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42605</c:v>
+                  <c:v>42668</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42606</c:v>
+                  <c:v>42669</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42607</c:v>
+                  <c:v>42670</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42608</c:v>
+                  <c:v>42671</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42609</c:v>
+                  <c:v>42672</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42610</c:v>
+                  <c:v>42673</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>42611</c:v>
+                  <c:v>42674</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>42612</c:v>
+                  <c:v>42675</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42613</c:v>
+                  <c:v>42676</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>42614</c:v>
+                  <c:v>42677</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>42615</c:v>
+                  <c:v>42678</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>42616</c:v>
+                  <c:v>42679</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>42617</c:v>
+                  <c:v>42680</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>42618</c:v>
+                  <c:v>42681</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>42619</c:v>
+                  <c:v>42682</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>42620</c:v>
+                  <c:v>42683</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>42621</c:v>
+                  <c:v>42684</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>42622</c:v>
+                  <c:v>42685</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>42623</c:v>
+                  <c:v>42686</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2187,94 +2208,94 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>42594</c:v>
+                  <c:v>42657</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42595</c:v>
+                  <c:v>42658</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42596</c:v>
+                  <c:v>42659</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42597</c:v>
+                  <c:v>42660</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42598</c:v>
+                  <c:v>42661</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42599</c:v>
+                  <c:v>42662</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42600</c:v>
+                  <c:v>42663</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42601</c:v>
+                  <c:v>42664</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42602</c:v>
+                  <c:v>42665</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42603</c:v>
+                  <c:v>42666</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42604</c:v>
+                  <c:v>42667</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42605</c:v>
+                  <c:v>42668</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42606</c:v>
+                  <c:v>42669</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42607</c:v>
+                  <c:v>42670</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42608</c:v>
+                  <c:v>42671</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42609</c:v>
+                  <c:v>42672</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42610</c:v>
+                  <c:v>42673</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>42611</c:v>
+                  <c:v>42674</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>42612</c:v>
+                  <c:v>42675</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42613</c:v>
+                  <c:v>42676</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>42614</c:v>
+                  <c:v>42677</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>42615</c:v>
+                  <c:v>42678</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>42616</c:v>
+                  <c:v>42679</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>42617</c:v>
+                  <c:v>42680</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>42618</c:v>
+                  <c:v>42681</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>42619</c:v>
+                  <c:v>42682</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>42620</c:v>
+                  <c:v>42683</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>42621</c:v>
+                  <c:v>42684</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>42622</c:v>
+                  <c:v>42685</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>42623</c:v>
+                  <c:v>42686</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2696,7 +2717,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>プロジェクトの開始</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2749,7 +2770,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3004,7 +3024,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>インタープリタのスタブ（池田）</c:v>
+                  <c:v>プロジェクトの開始</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3057,7 +3077,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3915,7 +3934,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2016年8月</c:v>
+                  <c:v>2016年10月</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3991,10 +4010,10 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>#N/A</c:v>
@@ -4040,7 +4059,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2016年9月</c:v>
+                  <c:v>2016年11月</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4116,10 +4135,10 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.5</c:v>
@@ -4165,7 +4184,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2016年9月</c:v>
+                  <c:v>2016年11月</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4277,13 +4296,13 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>#N/A</c:v>
@@ -4323,7 +4342,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2016年8月</c:v>
+                  <c:v>2016年10月</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4513,86 +4532,6 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>12</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{00B83B46-BAD7-47D8-A8E2-91D6E4DC88D3}</c15:txfldGUID>
-                      <c15:f>計算!$E$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>12</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>計算!$F$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>13</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{0B05F95B-6E7B-4842-8FE8-7A39819495DC}</c15:txfldGUID>
-                      <c15:f>計算!$F$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>13</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>計算!$G$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
                       <c:v>14</c:v>
                     </c:pt>
                   </c:strCache>
@@ -4610,8 +4549,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{3F01043D-36A5-4C42-ADCC-878BDC3E4D2A}</c15:txfldGUID>
-                      <c15:f>計算!$G$72</c15:f>
+                      <c15:txfldGUID>{4DB36773-FB43-413C-B357-E12BB85C06CC}</c15:txfldGUID>
+                      <c15:f>計算!$E$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4625,11 +4564,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="3"/>
+              <c:idx val="1"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>計算!$H$72</c:f>
+                  <c:f>計算!$F$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4650,8 +4589,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{12DF076F-433A-499D-8CC0-8706731E56E6}</c15:txfldGUID>
-                      <c15:f>計算!$H$72</c15:f>
+                      <c15:txfldGUID>{7994F14F-F5EA-4C5E-AEC8-89BA7ECFC867}</c15:txfldGUID>
+                      <c15:f>計算!$F$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4665,11 +4604,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="4"/>
+              <c:idx val="2"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>計算!$I$72</c:f>
+                  <c:f>計算!$G$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4690,8 +4629,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{16A9C5F4-67A5-4934-96DF-29F1575ECDD5}</c15:txfldGUID>
-                      <c15:f>計算!$I$72</c15:f>
+                      <c15:txfldGUID>{26F53385-CC9D-4925-9CC7-D86F0780C6CA}</c15:txfldGUID>
+                      <c15:f>計算!$G$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4705,11 +4644,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="5"/>
+              <c:idx val="3"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>計算!$J$72</c:f>
+                  <c:f>計算!$H$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4730,8 +4669,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{4E252938-F293-4285-8119-5B27A634FD9F}</c15:txfldGUID>
-                      <c15:f>計算!$J$72</c15:f>
+                      <c15:txfldGUID>{7315CD08-4587-4FD0-81D7-723BB937D061}</c15:txfldGUID>
+                      <c15:f>計算!$H$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4745,11 +4684,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="6"/>
+              <c:idx val="4"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>計算!$K$72</c:f>
+                  <c:f>計算!$I$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4770,8 +4709,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{66976730-A206-4B22-A883-1C5F4445D535}</c15:txfldGUID>
-                      <c15:f>計算!$K$72</c15:f>
+                      <c15:txfldGUID>{D92E4B96-FC0B-412D-9434-3A9D4A728929}</c15:txfldGUID>
+                      <c15:f>計算!$I$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4785,11 +4724,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="7"/>
+              <c:idx val="5"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>計算!$L$72</c:f>
+                  <c:f>計算!$J$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4810,8 +4749,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{C1B2D4B1-FB80-4286-A0CE-BA0C69D5A073}</c15:txfldGUID>
-                      <c15:f>計算!$L$72</c15:f>
+                      <c15:txfldGUID>{B730E2B7-28F5-461A-9475-ECBEEBEE1CDA}</c15:txfldGUID>
+                      <c15:f>計算!$J$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4825,11 +4764,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="8"/>
+              <c:idx val="6"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>計算!$M$72</c:f>
+                  <c:f>計算!$K$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4850,8 +4789,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{390F5818-234A-440C-B273-B3E137553959}</c15:txfldGUID>
-                      <c15:f>計算!$M$72</c15:f>
+                      <c15:txfldGUID>{6D849DE0-E6EA-47EE-8883-5487D20B7CD3}</c15:txfldGUID>
+                      <c15:f>計算!$K$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4865,11 +4804,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="9"/>
+              <c:idx val="7"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>計算!$N$72</c:f>
+                  <c:f>計算!$L$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4890,8 +4829,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{5B99863B-2B80-46FD-9452-75D472812EAC}</c15:txfldGUID>
-                      <c15:f>計算!$N$72</c15:f>
+                      <c15:txfldGUID>{6A555F32-DFA6-4ABA-B6B9-B53153CF02A9}</c15:txfldGUID>
+                      <c15:f>計算!$L$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4905,11 +4844,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="10"/>
+              <c:idx val="8"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>計算!$O$72</c:f>
+                  <c:f>計算!$M$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4930,8 +4869,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{9B00B351-AB40-4BD3-AE04-093151E5AC2B}</c15:txfldGUID>
-                      <c15:f>計算!$O$72</c15:f>
+                      <c15:txfldGUID>{5B763376-6993-4A47-B162-61785D84C76B}</c15:txfldGUID>
+                      <c15:f>計算!$M$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4945,11 +4884,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="11"/>
+              <c:idx val="9"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>計算!$P$72</c:f>
+                  <c:f>計算!$N$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4970,8 +4909,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{360BCEDC-017D-4A78-AC24-D3CFE8857350}</c15:txfldGUID>
-                      <c15:f>計算!$P$72</c15:f>
+                      <c15:txfldGUID>{8D707538-9272-4449-A19C-A269797E0E3E}</c15:txfldGUID>
+                      <c15:f>計算!$N$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4985,11 +4924,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="12"/>
+              <c:idx val="10"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>計算!$Q$72</c:f>
+                  <c:f>計算!$O$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5010,8 +4949,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{2D025ACE-EF85-4538-8633-F2B1C62FCB70}</c15:txfldGUID>
-                      <c15:f>計算!$Q$72</c15:f>
+                      <c15:txfldGUID>{545188A0-13AF-4127-A349-FF6DE4AFD5B2}</c15:txfldGUID>
+                      <c15:f>計算!$O$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5025,11 +4964,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="13"/>
+              <c:idx val="11"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>計算!$R$72</c:f>
+                  <c:f>計算!$P$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5050,8 +4989,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{42ADFE6A-7F16-42DF-AAD0-448EDBE8A2E3}</c15:txfldGUID>
-                      <c15:f>計算!$R$72</c15:f>
+                      <c15:txfldGUID>{7634CB36-C5AF-4761-BAFB-FFD1ECF040FB}</c15:txfldGUID>
+                      <c15:f>計算!$P$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5065,11 +5004,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="14"/>
+              <c:idx val="12"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>計算!$S$72</c:f>
+                  <c:f>計算!$Q$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5090,8 +5029,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{8F39C942-F757-4F23-8C95-206B987DB0F8}</c15:txfldGUID>
-                      <c15:f>計算!$S$72</c15:f>
+                      <c15:txfldGUID>{C0F3E445-7F5B-4728-85E7-E9A558AD6690}</c15:txfldGUID>
+                      <c15:f>計算!$Q$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5105,11 +5044,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="15"/>
+              <c:idx val="13"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>計算!$T$72</c:f>
+                  <c:f>計算!$R$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5130,8 +5069,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{EB2702B8-EF63-460D-B4F0-FE485C7BA500}</c15:txfldGUID>
-                      <c15:f>計算!$T$72</c15:f>
+                      <c15:txfldGUID>{00569200-96BB-40F1-9AE7-99DCB6E521D7}</c15:txfldGUID>
+                      <c15:f>計算!$R$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5145,11 +5084,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="16"/>
+              <c:idx val="14"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>計算!$U$72</c:f>
+                  <c:f>計算!$S$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5170,8 +5109,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{67E41B07-03DD-4ED5-A13B-54264093BD3F}</c15:txfldGUID>
-                      <c15:f>計算!$U$72</c15:f>
+                      <c15:txfldGUID>{01FBA7EA-6F62-4D06-96F6-18943184E328}</c15:txfldGUID>
+                      <c15:f>計算!$S$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5185,11 +5124,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="17"/>
+              <c:idx val="15"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>計算!$V$72</c:f>
+                  <c:f>計算!$T$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5210,8 +5149,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{4E6C75DB-3B2E-4414-AC59-186C276B85BC}</c15:txfldGUID>
-                      <c15:f>計算!$V$72</c15:f>
+                      <c15:txfldGUID>{0089B515-D862-4F2F-9190-12C3823AAE80}</c15:txfldGUID>
+                      <c15:f>計算!$T$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5225,11 +5164,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="18"/>
+              <c:idx val="16"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>計算!$W$72</c:f>
+                  <c:f>計算!$U$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5250,8 +5189,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{FF326B6F-B0E2-4C8C-A73A-7A3B7D5C496F}</c15:txfldGUID>
-                      <c15:f>計算!$W$72</c15:f>
+                      <c15:txfldGUID>{3231549B-E9DB-45A9-97D7-44BB18F950DB}</c15:txfldGUID>
+                      <c15:f>計算!$U$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5265,11 +5204,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="19"/>
+              <c:idx val="17"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>計算!$X$72</c:f>
+                  <c:f>計算!$V$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5290,8 +5229,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{F44767A9-0466-4A85-8A23-EA0C218076C3}</c15:txfldGUID>
-                      <c15:f>計算!$X$72</c15:f>
+                      <c15:txfldGUID>{5889A72C-EB99-41ED-93DE-20BF659575A2}</c15:txfldGUID>
+                      <c15:f>計算!$V$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5305,11 +5244,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="20"/>
+              <c:idx val="18"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>計算!$Y$72</c:f>
+                  <c:f>計算!$W$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5330,8 +5269,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{057363B1-8333-40FF-BE37-917758B4114B}</c15:txfldGUID>
-                      <c15:f>計算!$Y$72</c15:f>
+                      <c15:txfldGUID>{39C8418F-1D9B-4FB4-A239-6D7C75E78FC7}</c15:txfldGUID>
+                      <c15:f>計算!$W$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5345,11 +5284,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="21"/>
+              <c:idx val="19"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>計算!$Z$72</c:f>
+                  <c:f>計算!$X$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5370,8 +5309,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{0F149630-B955-43FD-9ACF-40DE4A747F11}</c15:txfldGUID>
-                      <c15:f>計算!$Z$72</c15:f>
+                      <c15:txfldGUID>{60721A04-9CAD-48CD-B989-4EA5B0F56ADF}</c15:txfldGUID>
+                      <c15:f>計算!$X$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5385,11 +5324,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="22"/>
+              <c:idx val="20"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>計算!$AA$72</c:f>
+                  <c:f>計算!$Y$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5410,8 +5349,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{5C35731A-048B-48A6-88AA-33211BCF61BB}</c15:txfldGUID>
-                      <c15:f>計算!$AA$72</c15:f>
+                      <c15:txfldGUID>{4E995897-2A9E-4FD9-8E9F-FC3EDBABEA09}</c15:txfldGUID>
+                      <c15:f>計算!$Y$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5425,11 +5364,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="23"/>
+              <c:idx val="21"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>計算!$AB$72</c:f>
+                  <c:f>計算!$Z$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5450,8 +5389,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{714C30DA-2C9E-4CD3-BCDF-54C25AAA3D45}</c15:txfldGUID>
-                      <c15:f>計算!$AB$72</c15:f>
+                      <c15:txfldGUID>{D35FEE9A-443F-4B58-A43E-DE556F180509}</c15:txfldGUID>
+                      <c15:f>計算!$Z$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5465,11 +5404,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="24"/>
+              <c:idx val="22"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>計算!$AC$72</c:f>
+                  <c:f>計算!$AA$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5490,8 +5429,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{06A2690E-1BCF-4CA0-AE75-060156C4F15C}</c15:txfldGUID>
-                      <c15:f>計算!$AC$72</c15:f>
+                      <c15:txfldGUID>{CDC5C634-220B-48C6-A4C0-1F0F08F5130B}</c15:txfldGUID>
+                      <c15:f>計算!$AA$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5505,11 +5444,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="25"/>
+              <c:idx val="23"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>計算!$AD$72</c:f>
+                  <c:f>計算!$AB$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5530,8 +5469,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{60827676-5312-4D13-8B51-9439C5EBB328}</c15:txfldGUID>
-                      <c15:f>計算!$AD$72</c15:f>
+                      <c15:txfldGUID>{E4BBEFD6-8DC7-4767-A99A-7EB7E8C8AB24}</c15:txfldGUID>
+                      <c15:f>計算!$AB$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5545,11 +5484,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="26"/>
+              <c:idx val="24"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>計算!$AE$72</c:f>
+                  <c:f>計算!$AC$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5570,8 +5509,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{8EFE985E-62E6-4A9D-92CF-2FD993FE7DCC}</c15:txfldGUID>
-                      <c15:f>計算!$AE$72</c15:f>
+                      <c15:txfldGUID>{4FD0247C-F23D-4841-B8CE-2C4DE35807F8}</c15:txfldGUID>
+                      <c15:f>計算!$AC$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5585,11 +5524,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="27"/>
+              <c:idx val="25"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>計算!$AF$72</c:f>
+                  <c:f>計算!$AD$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5610,8 +5549,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{59398CF5-0EBF-482A-A61B-C4A11030C165}</c15:txfldGUID>
-                      <c15:f>計算!$AF$72</c15:f>
+                      <c15:txfldGUID>{A84E74E0-CA29-4715-9344-72386267F670}</c15:txfldGUID>
+                      <c15:f>計算!$AD$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5625,11 +5564,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="28"/>
+              <c:idx val="26"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>計算!$AG$72</c:f>
+                  <c:f>計算!$AE$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5650,8 +5589,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A627BA57-B6DD-4026-9699-C3584046B0A3}</c15:txfldGUID>
-                      <c15:f>計算!$AG$72</c15:f>
+                      <c15:txfldGUID>{DBFCFF1B-1581-429E-8F4E-256E9BB917D0}</c15:txfldGUID>
+                      <c15:f>計算!$AE$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5665,11 +5604,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="29"/>
+              <c:idx val="27"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>計算!$AH$72</c:f>
+                  <c:f>計算!$AF$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5690,12 +5629,92 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{F2BDA778-2586-430B-862A-11ECE0069A89}</c15:txfldGUID>
+                      <c15:txfldGUID>{E4BB3778-528A-4C1C-8140-E8A9F7C20FF1}</c15:txfldGUID>
+                      <c15:f>計算!$AF$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>10</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="28"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>計算!$AG$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>11</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{770A8A77-8692-4F82-8F07-E866F6F0EC2F}</c15:txfldGUID>
+                      <c15:f>計算!$AG$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>11</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="29"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>計算!$AH$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>12</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{743ADEBD-4B10-4350-BE9B-3FF5B95349A8}</c15:txfldGUID>
                       <c15:f>計算!$AH$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>10</c:v>
+                          <c:v>12</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -5881,7 +5900,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{6019F679-13EF-43CA-8921-3A53E7D8FECE}</c15:txfldGUID>
+                      <c15:txfldGUID>{D88CE13B-B57B-49C5-A125-E1AA44505ADF}</c15:txfldGUID>
                       <c15:f>計算!$E$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5921,7 +5940,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{78C7DC90-8EE9-4721-8692-961C41E27078}</c15:txfldGUID>
+                      <c15:txfldGUID>{41BA8DBB-C2D2-4CCB-AFDA-5CC1598D5063}</c15:txfldGUID>
                       <c15:f>計算!$F$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5961,7 +5980,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{24B18913-4EF4-4043-8C37-4E777B184D20}</c15:txfldGUID>
+                      <c15:txfldGUID>{8C170EBC-38B4-4C13-9B17-092C3C65AB66}</c15:txfldGUID>
                       <c15:f>計算!$G$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6001,7 +6020,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{0FA5A98D-4F48-4A04-B038-615A43CCE741}</c15:txfldGUID>
+                      <c15:txfldGUID>{701BDA88-2EE0-475D-A8C5-DB3185B1C5C7}</c15:txfldGUID>
                       <c15:f>計算!$H$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6041,7 +6060,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{C7420993-4E32-4B0F-8525-EA6DDC5E4CA0}</c15:txfldGUID>
+                      <c15:txfldGUID>{4D9085DF-6C1C-43EC-AEB2-3CB4531A54C8}</c15:txfldGUID>
                       <c15:f>計算!$I$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6081,7 +6100,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{35BC34A7-0FC1-4AA1-B84D-B779B45BFF21}</c15:txfldGUID>
+                      <c15:txfldGUID>{B2452F07-88C6-4E97-946F-DAEE664DD005}</c15:txfldGUID>
                       <c15:f>計算!$J$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6121,7 +6140,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{F41778CC-3E06-4FDA-978D-F206E5743D25}</c15:txfldGUID>
+                      <c15:txfldGUID>{BDD2E720-FA2D-4B47-B305-FD288C67B988}</c15:txfldGUID>
                       <c15:f>計算!$K$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6161,7 +6180,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A669B302-7DC2-4A65-AC5B-CD730FCB06BF}</c15:txfldGUID>
+                      <c15:txfldGUID>{D4749170-F10B-4814-84AA-64CB9E035496}</c15:txfldGUID>
                       <c15:f>計算!$L$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6201,7 +6220,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{BF011619-647D-4790-BA08-E73C97FC6E69}</c15:txfldGUID>
+                      <c15:txfldGUID>{7D7B7B80-EADE-49AB-8082-688B1A759E9F}</c15:txfldGUID>
                       <c15:f>計算!$M$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6241,7 +6260,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{894A5B11-317E-465F-A1D8-C1483CADB74F}</c15:txfldGUID>
+                      <c15:txfldGUID>{4D398DE6-CFF5-4C07-9D91-C25DAA508DB9}</c15:txfldGUID>
                       <c15:f>計算!$N$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6281,7 +6300,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{7E1EAC18-32D4-4AEA-8238-9318AFD0ED74}</c15:txfldGUID>
+                      <c15:txfldGUID>{D1BD4B88-E6A6-4843-94C2-B1B84A46AB53}</c15:txfldGUID>
                       <c15:f>計算!$O$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6321,7 +6340,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{D4623710-42E7-4DCF-B776-BEA6243A93F8}</c15:txfldGUID>
+                      <c15:txfldGUID>{61318021-E0A4-4BE5-B4A7-B5652219D12E}</c15:txfldGUID>
                       <c15:f>計算!$P$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6361,7 +6380,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{75F252B1-15DD-4239-A793-1D77E88347F1}</c15:txfldGUID>
+                      <c15:txfldGUID>{3C51F75B-F16F-4A82-AB31-23910B6CB371}</c15:txfldGUID>
                       <c15:f>計算!$Q$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6401,7 +6420,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{41711B29-3C57-4AEA-82F9-2F868CF18565}</c15:txfldGUID>
+                      <c15:txfldGUID>{B33E9F49-FCDC-407F-885A-6CC1DA7CCFAA}</c15:txfldGUID>
                       <c15:f>計算!$R$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6441,7 +6460,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{7CE777B3-ADF0-46F4-9C09-78621CD32A0B}</c15:txfldGUID>
+                      <c15:txfldGUID>{E8248DAA-D78C-4E61-A905-12F87323837B}</c15:txfldGUID>
                       <c15:f>計算!$S$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6481,7 +6500,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{EA1CA609-DE41-4D17-A0F7-8D7E8539C661}</c15:txfldGUID>
+                      <c15:txfldGUID>{71BC48D6-F43E-41C9-AF4C-9CEE39298632}</c15:txfldGUID>
                       <c15:f>計算!$T$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6521,7 +6540,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{F6B4A0AF-C85C-4B26-80E0-62DEA0F6CA6F}</c15:txfldGUID>
+                      <c15:txfldGUID>{7656D887-FE3F-41C5-8D82-00BAD8DAC9D5}</c15:txfldGUID>
                       <c15:f>計算!$U$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6561,7 +6580,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{D95DA971-A34A-4467-9D5C-DFF70C2EECC0}</c15:txfldGUID>
+                      <c15:txfldGUID>{188F4F7C-5458-4092-A31B-F687E55418FF}</c15:txfldGUID>
                       <c15:f>計算!$V$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6601,7 +6620,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{CE9515F3-03E8-456D-A896-291B2C63A769}</c15:txfldGUID>
+                      <c15:txfldGUID>{F4CE999E-7AD2-47C2-8FDB-F1D969E5522E}</c15:txfldGUID>
                       <c15:f>計算!$W$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6641,7 +6660,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{67BC58E1-3B08-469B-97DF-56F2A80D5A48}</c15:txfldGUID>
+                      <c15:txfldGUID>{D856F58C-892F-4C31-B91D-DA4CA0CA1183}</c15:txfldGUID>
                       <c15:f>計算!$X$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6681,7 +6700,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{6F250ED3-EE4B-49E4-82C1-E0B582EB6694}</c15:txfldGUID>
+                      <c15:txfldGUID>{732359CA-F17C-480D-9CD0-5DB3865850E3}</c15:txfldGUID>
                       <c15:f>計算!$Y$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6721,7 +6740,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{C4F0475A-9805-4687-98CC-9A69F63ABACB}</c15:txfldGUID>
+                      <c15:txfldGUID>{6F7784AE-239F-47C9-96E6-AC41E7046733}</c15:txfldGUID>
                       <c15:f>計算!$Z$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6761,7 +6780,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{62DCD66C-E2A1-4681-BEC4-F8D0720EEAD3}</c15:txfldGUID>
+                      <c15:txfldGUID>{BB9EF10B-58A2-4CB0-99E5-3EADC555B787}</c15:txfldGUID>
                       <c15:f>計算!$AA$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6801,7 +6820,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{2306DA70-7231-4F58-B894-25568223F02F}</c15:txfldGUID>
+                      <c15:txfldGUID>{1DDFAB99-313C-437F-92E4-DBCA221ACA12}</c15:txfldGUID>
                       <c15:f>計算!$AB$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6841,7 +6860,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{4F90A109-FEE5-48EC-9F37-33E5732EEBA4}</c15:txfldGUID>
+                      <c15:txfldGUID>{5E19EAEE-BA69-40C2-A800-81621DC6ABC0}</c15:txfldGUID>
                       <c15:f>計算!$AC$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6881,7 +6900,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{51250FFC-8B82-4B53-988D-E1E4EE7B3014}</c15:txfldGUID>
+                      <c15:txfldGUID>{071B1F4C-AFEC-46A4-8407-BDE884037F44}</c15:txfldGUID>
                       <c15:f>計算!$AD$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6921,7 +6940,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{DEFEBCE4-7553-49B2-A054-A0FB0079AF48}</c15:txfldGUID>
+                      <c15:txfldGUID>{AF0CCE40-B06E-427F-93DB-CB55F6410D9F}</c15:txfldGUID>
                       <c15:f>計算!$AE$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6961,7 +6980,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A14F54F3-D56D-413A-948F-93315F7A4969}</c15:txfldGUID>
+                      <c15:txfldGUID>{26C1F787-6C94-4D5C-9A4A-ECF7FC56EBBC}</c15:txfldGUID>
                       <c15:f>計算!$AF$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7001,7 +7020,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{E0537093-1496-4EC1-B039-0C7987CB3CF5}</c15:txfldGUID>
+                      <c15:txfldGUID>{F6CF5674-0443-4DCC-B23B-360CC856C00B}</c15:txfldGUID>
                       <c15:f>計算!$AG$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7041,7 +7060,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{8FFA48D6-F78C-4757-BF70-094B17D83387}</c15:txfldGUID>
+                      <c15:txfldGUID>{55B4B69E-C3B0-4140-B34F-29CD731A76BC}</c15:txfldGUID>
                       <c15:f>計算!$AH$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7199,7 +7218,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2016年 8月  - Top Band</c:v>
+                  <c:v>2016年 10月  - Top Band</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7275,10 +7294,10 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>#N/A</c:v>
@@ -7324,7 +7343,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2016年 9月 - Top Band</c:v>
+                  <c:v>2016年 11月 - Top Band</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7400,10 +7419,10 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>13</c:v>
@@ -7450,11 +7469,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="187840488"/>
-        <c:axId val="187844800"/>
+        <c:axId val="540438464"/>
+        <c:axId val="540431408"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="187840488"/>
+        <c:axId val="540438464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7477,14 +7496,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187844800"/>
+        <c:crossAx val="540431408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="187844800"/>
+        <c:axId val="540431408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.5"/>
@@ -7496,7 +7515,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187840488"/>
+        <c:crossAx val="540438464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -7544,8 +7563,8 @@
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>12954</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3175254</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
@@ -7877,13 +7896,15 @@
   </sheetPr>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.5546875" style="6" customWidth="1"/>
     <col min="2" max="2" width="0" style="6" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="31" style="6" customWidth="1"/>
+    <col min="3" max="3" width="41.77734375" style="6" customWidth="1"/>
     <col min="4" max="5" width="18.44140625" style="6" customWidth="1"/>
     <col min="6" max="6" width="56.88671875" style="6" customWidth="1"/>
     <col min="7" max="7" width="5.5546875" style="6" customWidth="1"/>
@@ -7894,7 +7915,7 @@
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -7922,7 +7943,7 @@
       </c>
       <c r="D20" s="11">
         <f ca="1">TODAY()-3</f>
-        <v>42594</v>
+        <v>42657</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
@@ -7960,7 +7981,7 @@
       </c>
       <c r="D23" s="15">
         <f ca="1">D20+3</f>
-        <v>42597</v>
+        <v>42660</v>
       </c>
       <c r="E23" s="15"/>
       <c r="F23" s="14"/>
@@ -7995,7 +8016,7 @@
         <v>42598</v>
       </c>
       <c r="E25" s="15">
-        <v>42643</v>
+        <v>42704</v>
       </c>
       <c r="F25" s="14"/>
     </row>
@@ -8008,11 +8029,11 @@
         <v>24</v>
       </c>
       <c r="D26" s="15">
-        <v>42644</v>
+        <v>42705</v>
       </c>
       <c r="E26" s="15">
-        <f>Activities[[#This Row],[開始]]+30</f>
-        <v>42674</v>
+        <f>Activities[[#This Row],[開始]]+15</f>
+        <v>42720</v>
       </c>
       <c r="F26" s="14"/>
     </row>
@@ -8022,15 +8043,15 @@
         <v>5</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="22">
-        <f>D26+10</f>
-        <v>42654</v>
-      </c>
-      <c r="E27" s="22">
-        <f>Activities[[#This Row],[開始]]+2</f>
-        <v>42656</v>
+        <v>21</v>
+      </c>
+      <c r="D27" s="15">
+        <f>D26</f>
+        <v>42705</v>
+      </c>
+      <c r="E27" s="15">
+        <f>Activities[[#This Row],[開始]]+15</f>
+        <v>42720</v>
       </c>
       <c r="F27" s="14"/>
     </row>
@@ -8040,15 +8061,14 @@
         <v>5</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D28" s="15">
         <f>E24+1</f>
         <v>42614</v>
       </c>
       <c r="E28" s="15">
-        <f>Activities[[#This Row],[開始]]+60</f>
-        <v>42674</v>
+        <v>42704</v>
       </c>
       <c r="F28" s="14"/>
     </row>
@@ -8058,15 +8078,14 @@
         <v>6</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D29" s="15">
         <f>E28+1</f>
-        <v>42675</v>
+        <v>42705</v>
       </c>
       <c r="E29" s="15">
-        <f>Activities[[#This Row],[開始]]+30</f>
-        <v>42705</v>
+        <v>42720</v>
       </c>
       <c r="F29" s="14"/>
     </row>
@@ -8076,15 +8095,15 @@
         <v>7</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D30" s="15">
         <f>D29</f>
-        <v>42675</v>
+        <v>42705</v>
       </c>
       <c r="E30" s="15">
         <f>E29</f>
-        <v>42705</v>
+        <v>42720</v>
       </c>
       <c r="F30" s="14"/>
     </row>
@@ -8098,13 +8117,15 @@
       </c>
       <c r="D31" s="15">
         <f>E30+1</f>
-        <v>42706</v>
+        <v>42721</v>
       </c>
       <c r="E31" s="15">
         <f>D32</f>
         <v>42735</v>
       </c>
-      <c r="F31" s="14"/>
+      <c r="F31" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="32" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="16" t="e">
@@ -8194,7 +8215,7 @@
       </c>
       <c r="D3" s="18">
         <f ca="1">TODAY()</f>
-        <v>42597</v>
+        <v>42660</v>
       </c>
       <c r="E3" s="18"/>
     </row>
@@ -8227,7 +8248,7 @@
       </c>
       <c r="D9" s="17">
         <f ca="1">SUMPRODUCT( ((Activities[開始]&gt;=StartDateWindow)+(Activities[終了]&gt;=StartDateWindow)&gt;0)*(Activities[開始]&lt;=(StartDateWindow+WindowDays-1)) )</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9" s="17" t="e">
         <f>NA()</f>
@@ -8246,7 +8267,7 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D11" s="17">
         <f ca="1">D10-MIN(D10,D9)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E11" s="17" t="e">
         <f>NA()</f>
@@ -8288,7 +8309,7 @@
       <c r="C16" s="19"/>
       <c r="E16" s="17">
         <f t="array" aca="1" ref="E16" ca="1">INDEX(Activities[Id],MATCH(1, (Activities[Id]&gt;E15)*((Activities[開始]&gt;=StartDateWindow)+(Activities[終了]&gt;=StartDateWindow)&gt;0)*(Activities[開始]&lt;=(StartDateWindow+WindowDays-1)), 0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16" s="17" t="e">
         <f t="shared" ca="1" si="0"/>
@@ -8299,7 +8320,7 @@
       <c r="C17" s="19"/>
       <c r="E17" s="17">
         <f t="array" aca="1" ref="E17" ca="1">INDEX(Activities[Id],MATCH(1, (Activities[Id]&gt;E16)*((Activities[開始]&gt;=StartDateWindow)+(Activities[終了]&gt;=StartDateWindow)&gt;0)*(Activities[開始]&lt;=(StartDateWindow+WindowDays-1)), 0))</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F17" s="17" t="e">
         <f t="shared" ca="1" si="0"/>
@@ -8307,9 +8328,9 @@
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="E18" s="17">
+      <c r="E18" s="17" t="e">
         <f t="array" aca="1" ref="E18" ca="1">INDEX(Activities[Id],MATCH(1, (Activities[Id]&gt;E17)*((Activities[開始]&gt;=StartDateWindow)+(Activities[終了]&gt;=StartDateWindow)&gt;0)*(Activities[開始]&lt;=(StartDateWindow+WindowDays-1)), 0))</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="F18" s="17" t="e">
         <f t="shared" ca="1" si="0"/>
@@ -8331,9 +8352,9 @@
         <f t="array" aca="1" ref="E20" ca="1">INDEX(Activities[Id],MATCH(1, (Activities[Id]&gt;E19)*((Activities[開始]&gt;=StartDateWindow)+(Activities[終了]&gt;=StartDateWindow)&gt;0)*(Activities[開始]&lt;=(StartDateWindow+WindowDays-1)), 0))</f>
         <v>#N/A</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="17" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.3">
@@ -8343,7 +8364,7 @@
       </c>
       <c r="F21" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.3">
@@ -8372,7 +8393,7 @@
       </c>
       <c r="D25" s="18">
         <f ca="1">StartDate+WindowOffset</f>
-        <v>42594</v>
+        <v>42657</v>
       </c>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.3">
@@ -8389,7 +8410,7 @@
       </c>
       <c r="D28" s="19">
         <f ca="1">'プロジェクト タイムライン'!D20</f>
-        <v>42594</v>
+        <v>42657</v>
       </c>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.3">
@@ -8415,127 +8436,127 @@
       </c>
       <c r="E31" s="18">
         <f ca="1">StartDateWindow</f>
-        <v>42594</v>
+        <v>42657</v>
       </c>
       <c r="F31" s="18">
         <f t="shared" ref="F31:AI31" ca="1" si="1">E31+1</f>
-        <v>42595</v>
+        <v>42658</v>
       </c>
       <c r="G31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42596</v>
+        <v>42659</v>
       </c>
       <c r="H31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42597</v>
+        <v>42660</v>
       </c>
       <c r="I31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42598</v>
+        <v>42661</v>
       </c>
       <c r="J31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42599</v>
+        <v>42662</v>
       </c>
       <c r="K31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42600</v>
+        <v>42663</v>
       </c>
       <c r="L31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42601</v>
+        <v>42664</v>
       </c>
       <c r="M31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42602</v>
+        <v>42665</v>
       </c>
       <c r="N31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42603</v>
+        <v>42666</v>
       </c>
       <c r="O31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42604</v>
+        <v>42667</v>
       </c>
       <c r="P31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42605</v>
+        <v>42668</v>
       </c>
       <c r="Q31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42606</v>
+        <v>42669</v>
       </c>
       <c r="R31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42607</v>
+        <v>42670</v>
       </c>
       <c r="S31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42608</v>
+        <v>42671</v>
       </c>
       <c r="T31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42609</v>
+        <v>42672</v>
       </c>
       <c r="U31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42610</v>
+        <v>42673</v>
       </c>
       <c r="V31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42611</v>
+        <v>42674</v>
       </c>
       <c r="W31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42612</v>
+        <v>42675</v>
       </c>
       <c r="X31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42613</v>
+        <v>42676</v>
       </c>
       <c r="Y31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42614</v>
+        <v>42677</v>
       </c>
       <c r="Z31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42615</v>
+        <v>42678</v>
       </c>
       <c r="AA31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42616</v>
+        <v>42679</v>
       </c>
       <c r="AB31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42617</v>
+        <v>42680</v>
       </c>
       <c r="AC31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42618</v>
+        <v>42681</v>
       </c>
       <c r="AD31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42619</v>
+        <v>42682</v>
       </c>
       <c r="AE31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42620</v>
+        <v>42683</v>
       </c>
       <c r="AF31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42621</v>
+        <v>42684</v>
       </c>
       <c r="AG31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42622</v>
+        <v>42685</v>
       </c>
       <c r="AH31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42623</v>
+        <v>42686</v>
       </c>
       <c r="AI31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42624</v>
+        <v>42687</v>
       </c>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.3">
@@ -9250,13 +9271,13 @@
       <c r="B37" s="17">
         <v>6</v>
       </c>
-      <c r="C37" s="17">
+      <c r="C37" s="17" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="D37" s="17" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D37" s="17" t="e">
         <f ca="1">INDEX(Activities[アクティビティ],MATCH($C37,Activities[Id],0))</f>
-        <v>プロジェクトの開始</v>
+        <v>#N/A</v>
       </c>
       <c r="E37" s="17" t="e">
         <f ca="1">GridCalc</f>
@@ -9393,11 +9414,11 @@
       </c>
       <c r="C38" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D38" s="17" t="str">
         <f ca="1">INDEX(Activities[アクティビティ],MATCH($C38,Activities[Id],0))</f>
-        <v>インタープリタのスタブ（池田）</v>
+        <v>プロジェクトの開始</v>
       </c>
       <c r="E38" s="17" t="e">
         <f ca="1">GridCalc</f>
@@ -9809,123 +9830,123 @@
     <row r="43" spans="1:35" x14ac:dyDescent="0.3">
       <c r="E43" s="18">
         <f ca="1">E31</f>
-        <v>42594</v>
+        <v>42657</v>
       </c>
       <c r="F43" s="18">
         <f t="shared" ref="F43:AH43" ca="1" si="4">F31</f>
-        <v>42595</v>
+        <v>42658</v>
       </c>
       <c r="G43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42596</v>
+        <v>42659</v>
       </c>
       <c r="H43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42597</v>
+        <v>42660</v>
       </c>
       <c r="I43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42598</v>
+        <v>42661</v>
       </c>
       <c r="J43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42599</v>
+        <v>42662</v>
       </c>
       <c r="K43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42600</v>
+        <v>42663</v>
       </c>
       <c r="L43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42601</v>
+        <v>42664</v>
       </c>
       <c r="M43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42602</v>
+        <v>42665</v>
       </c>
       <c r="N43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42603</v>
+        <v>42666</v>
       </c>
       <c r="O43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42604</v>
+        <v>42667</v>
       </c>
       <c r="P43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42605</v>
+        <v>42668</v>
       </c>
       <c r="Q43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42606</v>
+        <v>42669</v>
       </c>
       <c r="R43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42607</v>
+        <v>42670</v>
       </c>
       <c r="S43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42608</v>
+        <v>42671</v>
       </c>
       <c r="T43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42609</v>
+        <v>42672</v>
       </c>
       <c r="U43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42610</v>
+        <v>42673</v>
       </c>
       <c r="V43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42611</v>
+        <v>42674</v>
       </c>
       <c r="W43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42612</v>
+        <v>42675</v>
       </c>
       <c r="X43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42613</v>
+        <v>42676</v>
       </c>
       <c r="Y43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42614</v>
+        <v>42677</v>
       </c>
       <c r="Z43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42615</v>
+        <v>42678</v>
       </c>
       <c r="AA43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42616</v>
+        <v>42679</v>
       </c>
       <c r="AB43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42617</v>
+        <v>42680</v>
       </c>
       <c r="AC43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42618</v>
+        <v>42681</v>
       </c>
       <c r="AD43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42619</v>
+        <v>42682</v>
       </c>
       <c r="AE43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42620</v>
+        <v>42683</v>
       </c>
       <c r="AF43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42621</v>
+        <v>42684</v>
       </c>
       <c r="AG43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42622</v>
+        <v>42685</v>
       </c>
       <c r="AH43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42623</v>
+        <v>42686</v>
       </c>
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.3">
@@ -10579,13 +10600,13 @@
       </c>
     </row>
     <row r="49" spans="3:34" x14ac:dyDescent="0.3">
-      <c r="C49" s="17">
+      <c r="C49" s="17" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="D49" s="17" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D49" s="17" t="e">
         <f ca="1">UPPER(INDEX(Activities[アクティビティ],MATCH($C49,Activities[Id],0)))</f>
-        <v>プロジェクトの開始</v>
+        <v>#N/A</v>
       </c>
       <c r="E49" s="17" t="e">
         <f t="shared" ref="E49:AH49" ca="1" si="11">IF(ISERROR(F37),E37,NA())</f>
@@ -10711,11 +10732,11 @@
     <row r="50" spans="3:34" x14ac:dyDescent="0.3">
       <c r="C50" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D50" s="17" t="str">
         <f ca="1">UPPER(INDEX(Activities[アクティビティ],MATCH($C50,Activities[Id],0)))</f>
-        <v>インタープリタのスタブ（池田）</v>
+        <v>プロジェクトの開始</v>
       </c>
       <c r="E50" s="17" t="e">
         <f t="shared" ref="E50:AH50" ca="1" si="12">IF(ISERROR(F38),E38,NA())</f>
@@ -11101,123 +11122,123 @@
     <row r="55" spans="3:34" x14ac:dyDescent="0.3">
       <c r="E55" s="18">
         <f ca="1">E31</f>
-        <v>42594</v>
+        <v>42657</v>
       </c>
       <c r="F55" s="18">
         <f t="shared" ref="F55:AH55" ca="1" si="15">F31</f>
-        <v>42595</v>
+        <v>42658</v>
       </c>
       <c r="G55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42596</v>
+        <v>42659</v>
       </c>
       <c r="H55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42597</v>
+        <v>42660</v>
       </c>
       <c r="I55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42598</v>
+        <v>42661</v>
       </c>
       <c r="J55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42599</v>
+        <v>42662</v>
       </c>
       <c r="K55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42600</v>
+        <v>42663</v>
       </c>
       <c r="L55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42601</v>
+        <v>42664</v>
       </c>
       <c r="M55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42602</v>
+        <v>42665</v>
       </c>
       <c r="N55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42603</v>
+        <v>42666</v>
       </c>
       <c r="O55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42604</v>
+        <v>42667</v>
       </c>
       <c r="P55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42605</v>
+        <v>42668</v>
       </c>
       <c r="Q55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42606</v>
+        <v>42669</v>
       </c>
       <c r="R55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42607</v>
+        <v>42670</v>
       </c>
       <c r="S55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42608</v>
+        <v>42671</v>
       </c>
       <c r="T55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42609</v>
+        <v>42672</v>
       </c>
       <c r="U55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42610</v>
+        <v>42673</v>
       </c>
       <c r="V55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42611</v>
+        <v>42674</v>
       </c>
       <c r="W55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42612</v>
+        <v>42675</v>
       </c>
       <c r="X55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42613</v>
+        <v>42676</v>
       </c>
       <c r="Y55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42614</v>
+        <v>42677</v>
       </c>
       <c r="Z55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42615</v>
+        <v>42678</v>
       </c>
       <c r="AA55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42616</v>
+        <v>42679</v>
       </c>
       <c r="AB55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42617</v>
+        <v>42680</v>
       </c>
       <c r="AC55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42618</v>
+        <v>42681</v>
       </c>
       <c r="AD55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42619</v>
+        <v>42682</v>
       </c>
       <c r="AE55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42620</v>
+        <v>42683</v>
       </c>
       <c r="AF55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42621</v>
+        <v>42684</v>
       </c>
       <c r="AG55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42622</v>
+        <v>42685</v>
       </c>
       <c r="AH55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42623</v>
+        <v>42686</v>
       </c>
     </row>
     <row r="56" spans="3:34" x14ac:dyDescent="0.3">
@@ -11348,7 +11369,7 @@
     <row r="58" spans="3:34" x14ac:dyDescent="0.3">
       <c r="D58" s="20">
         <f ca="1">DATE(YEAR(MIN(E55:AH55)),MONTH(MIN(E55:AH55)),1)</f>
-        <v>42583</v>
+        <v>42644</v>
       </c>
       <c r="E58" s="17">
         <f ca="1">IF(MEDIAN($D58,E$55,EOMONTH($D58,0))=E$55,0.5,NA())</f>
@@ -11422,13 +11443,13 @@
         <f t="shared" ca="1" si="17"/>
         <v>0.5</v>
       </c>
-      <c r="W58" s="17">
+      <c r="W58" s="17" t="e">
         <f t="shared" ca="1" si="17"/>
-        <v>0.5</v>
-      </c>
-      <c r="X58" s="17">
+        <v>#N/A</v>
+      </c>
+      <c r="X58" s="17" t="e">
         <f t="shared" ca="1" si="17"/>
-        <v>0.5</v>
+        <v>#N/A</v>
       </c>
       <c r="Y58" s="17" t="e">
         <f t="shared" ca="1" si="17"/>
@@ -11474,7 +11495,7 @@
     <row r="59" spans="3:34" x14ac:dyDescent="0.3">
       <c r="D59" s="20" t="str">
         <f ca="1">TEXT(D58,"yyyy年 m月 ") &amp; " - Top Band"</f>
-        <v>2016年 8月  - Top Band</v>
+        <v>2016年 10月  - Top Band</v>
       </c>
       <c r="E59" s="17">
         <f ca="1">E58+12.5</f>
@@ -11548,13 +11569,13 @@
         <f t="shared" ca="1" si="18"/>
         <v>13</v>
       </c>
-      <c r="W59" s="17">
+      <c r="W59" s="17" t="e">
         <f t="shared" ca="1" si="18"/>
-        <v>13</v>
-      </c>
-      <c r="X59" s="17">
+        <v>#N/A</v>
+      </c>
+      <c r="X59" s="17" t="e">
         <f t="shared" ca="1" si="18"/>
-        <v>13</v>
+        <v>#N/A</v>
       </c>
       <c r="Y59" s="17" t="e">
         <f t="shared" ca="1" si="18"/>
@@ -11603,7 +11624,7 @@
     <row r="61" spans="3:34" x14ac:dyDescent="0.3">
       <c r="D61" s="20">
         <f ca="1">EOMONTH(D58,0)+1</f>
-        <v>42614</v>
+        <v>42675</v>
       </c>
       <c r="E61" s="17" t="e">
         <f ca="1">IF(MEDIAN($D61,E$55,EOMONTH($D61,0))=E$55,0.5,NA())</f>
@@ -11677,13 +11698,13 @@
         <f t="shared" ca="1" si="19"/>
         <v>#N/A</v>
       </c>
-      <c r="W61" s="17" t="e">
+      <c r="W61" s="17">
         <f t="shared" ca="1" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X61" s="17" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="X61" s="17">
         <f t="shared" ca="1" si="19"/>
-        <v>#N/A</v>
+        <v>0.5</v>
       </c>
       <c r="Y61" s="17">
         <f t="shared" ca="1" si="19"/>
@@ -11729,7 +11750,7 @@
     <row r="62" spans="3:34" x14ac:dyDescent="0.3">
       <c r="D62" s="20" t="str">
         <f ca="1">TEXT(D61,"yyyy年 m月") &amp; " - Top Band"</f>
-        <v>2016年 9月 - Top Band</v>
+        <v>2016年 11月 - Top Band</v>
       </c>
       <c r="E62" s="17" t="e">
         <f ca="1">E61+12.5</f>
@@ -11803,13 +11824,13 @@
         <f t="shared" ca="1" si="20"/>
         <v>#N/A</v>
       </c>
-      <c r="W62" s="17" t="e">
+      <c r="W62" s="17">
         <f t="shared" ca="1" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X62" s="17" t="e">
+        <v>13</v>
+      </c>
+      <c r="X62" s="17">
         <f t="shared" ca="1" si="20"/>
-        <v>#N/A</v>
+        <v>13</v>
       </c>
       <c r="Y62" s="17">
         <f t="shared" ca="1" si="20"/>
@@ -11858,7 +11879,7 @@
     <row r="65" spans="4:34" x14ac:dyDescent="0.3">
       <c r="D65" s="20">
         <f ca="1">D58+1</f>
-        <v>42584</v>
+        <v>42645</v>
       </c>
       <c r="E65" s="17" t="e">
         <f ca="1">IF(MEDIAN($D65,E$55)=E$55,0.5,NA())</f>
@@ -11984,7 +12005,7 @@
     <row r="66" spans="4:34" x14ac:dyDescent="0.3">
       <c r="D66" s="20">
         <f ca="1">D61+1</f>
-        <v>42615</v>
+        <v>42676</v>
       </c>
       <c r="E66" s="17" t="e">
         <f ca="1">IF(MEDIAN($D66,E$55)=E$55,0.5,NA())</f>
@@ -12062,17 +12083,17 @@
         <f t="shared" ca="1" si="21"/>
         <v>#N/A</v>
       </c>
-      <c r="X66" s="17" t="e">
+      <c r="X66" s="17">
         <f t="shared" ca="1" si="21"/>
-        <v>#N/A</v>
+        <v>0.5</v>
       </c>
       <c r="Y66" s="17" t="e">
         <f t="shared" ca="1" si="21"/>
         <v>#N/A</v>
       </c>
-      <c r="Z66" s="17">
+      <c r="Z66" s="17" t="e">
         <f t="shared" ca="1" si="21"/>
-        <v>0.5</v>
+        <v>#N/A</v>
       </c>
       <c r="AA66" s="17" t="e">
         <f t="shared" ca="1" si="21"/>
@@ -12477,123 +12498,123 @@
     <row r="72" spans="4:34" x14ac:dyDescent="0.3">
       <c r="E72" s="17" t="str">
         <f ca="1">TEXT(E55,"dd")</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F72" s="17" t="str">
         <f t="shared" ref="F72:AH72" ca="1" si="24">TEXT(F55,"dd")</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Q72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="R72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="S72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="T72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="U72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="V72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="W72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>30</v>
+        <v>01</v>
       </c>
       <c r="X72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>31</v>
+        <v>02</v>
       </c>
       <c r="Y72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>01</v>
+        <v>03</v>
       </c>
       <c r="Z72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>02</v>
+        <v>04</v>
       </c>
       <c r="AA72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>03</v>
+        <v>05</v>
       </c>
       <c r="AB72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>04</v>
+        <v>06</v>
       </c>
       <c r="AC72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>05</v>
+        <v>07</v>
       </c>
       <c r="AD72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>06</v>
+        <v>08</v>
       </c>
       <c r="AE72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>07</v>
+        <v>09</v>
       </c>
       <c r="AF72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>08</v>
+        <v>10</v>
       </c>
       <c r="AG72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>09</v>
+        <v>11</v>
       </c>
       <c r="AH72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/doc/進捗管理/プロトタイプ作成予定.xlsx
+++ b/doc/進捗管理/プロトタイプ作成予定.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="0" windowWidth="25200" windowHeight="12576"/>
+    <workbookView xWindow="5280" yWindow="0" windowWidth="25200" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="プロジェクト タイムライン" sheetId="1" r:id="rId1"/>
@@ -104,16 +104,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>インタープリタデバッグ（池田・宮上）</t>
-    <rPh sb="12" eb="14">
-      <t>イケダ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ミヤカミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>BeGIC プロジェクト プロトタイプ タイムライン</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -189,6 +179,13 @@
     </rPh>
     <rPh sb="22" eb="24">
       <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インタープリタデバッグ（池田）</t>
+    <rPh sb="12" eb="14">
+      <t>イケダ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -645,94 +642,94 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>42657</c:v>
+                  <c:v>42671</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42658</c:v>
+                  <c:v>42672</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42659</c:v>
+                  <c:v>42673</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42660</c:v>
+                  <c:v>42674</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42661</c:v>
+                  <c:v>42675</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42662</c:v>
+                  <c:v>42676</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42663</c:v>
+                  <c:v>42677</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42664</c:v>
+                  <c:v>42678</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42665</c:v>
+                  <c:v>42679</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42666</c:v>
+                  <c:v>42680</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42667</c:v>
+                  <c:v>42681</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42668</c:v>
+                  <c:v>42682</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42669</c:v>
+                  <c:v>42683</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42670</c:v>
+                  <c:v>42684</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42671</c:v>
+                  <c:v>42685</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42672</c:v>
+                  <c:v>42686</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42673</c:v>
+                  <c:v>42687</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>42674</c:v>
+                  <c:v>42688</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>42675</c:v>
+                  <c:v>42689</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42676</c:v>
+                  <c:v>42690</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>42677</c:v>
+                  <c:v>42691</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>42678</c:v>
+                  <c:v>42692</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>42679</c:v>
+                  <c:v>42693</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>42680</c:v>
+                  <c:v>42694</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>42681</c:v>
+                  <c:v>42695</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>42682</c:v>
+                  <c:v>42696</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>42683</c:v>
+                  <c:v>42697</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>42684</c:v>
+                  <c:v>42698</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>42685</c:v>
+                  <c:v>42699</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>42686</c:v>
+                  <c:v>42700</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1035,94 +1032,94 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>42657</c:v>
+                  <c:v>42671</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42658</c:v>
+                  <c:v>42672</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42659</c:v>
+                  <c:v>42673</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42660</c:v>
+                  <c:v>42674</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42661</c:v>
+                  <c:v>42675</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42662</c:v>
+                  <c:v>42676</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42663</c:v>
+                  <c:v>42677</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42664</c:v>
+                  <c:v>42678</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42665</c:v>
+                  <c:v>42679</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42666</c:v>
+                  <c:v>42680</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42667</c:v>
+                  <c:v>42681</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42668</c:v>
+                  <c:v>42682</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42669</c:v>
+                  <c:v>42683</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42670</c:v>
+                  <c:v>42684</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42671</c:v>
+                  <c:v>42685</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42672</c:v>
+                  <c:v>42686</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42673</c:v>
+                  <c:v>42687</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>42674</c:v>
+                  <c:v>42688</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>42675</c:v>
+                  <c:v>42689</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42676</c:v>
+                  <c:v>42690</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>42677</c:v>
+                  <c:v>42691</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>42678</c:v>
+                  <c:v>42692</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>42679</c:v>
+                  <c:v>42693</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>42680</c:v>
+                  <c:v>42694</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>42681</c:v>
+                  <c:v>42695</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>42682</c:v>
+                  <c:v>42696</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>42683</c:v>
+                  <c:v>42697</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>42684</c:v>
+                  <c:v>42698</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>42685</c:v>
+                  <c:v>42699</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>42686</c:v>
+                  <c:v>42700</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1425,94 +1422,94 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>42657</c:v>
+                  <c:v>42671</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42658</c:v>
+                  <c:v>42672</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42659</c:v>
+                  <c:v>42673</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42660</c:v>
+                  <c:v>42674</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42661</c:v>
+                  <c:v>42675</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42662</c:v>
+                  <c:v>42676</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42663</c:v>
+                  <c:v>42677</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42664</c:v>
+                  <c:v>42678</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42665</c:v>
+                  <c:v>42679</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42666</c:v>
+                  <c:v>42680</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42667</c:v>
+                  <c:v>42681</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42668</c:v>
+                  <c:v>42682</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42669</c:v>
+                  <c:v>42683</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42670</c:v>
+                  <c:v>42684</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42671</c:v>
+                  <c:v>42685</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42672</c:v>
+                  <c:v>42686</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42673</c:v>
+                  <c:v>42687</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>42674</c:v>
+                  <c:v>42688</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>42675</c:v>
+                  <c:v>42689</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42676</c:v>
+                  <c:v>42690</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>42677</c:v>
+                  <c:v>42691</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>42678</c:v>
+                  <c:v>42692</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>42679</c:v>
+                  <c:v>42693</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>42680</c:v>
+                  <c:v>42694</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>42681</c:v>
+                  <c:v>42695</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>42682</c:v>
+                  <c:v>42696</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>42683</c:v>
+                  <c:v>42697</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>42684</c:v>
+                  <c:v>42698</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>42685</c:v>
+                  <c:v>42699</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>42686</c:v>
+                  <c:v>42700</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1818,94 +1815,94 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>42657</c:v>
+                  <c:v>42671</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42658</c:v>
+                  <c:v>42672</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42659</c:v>
+                  <c:v>42673</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42660</c:v>
+                  <c:v>42674</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42661</c:v>
+                  <c:v>42675</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42662</c:v>
+                  <c:v>42676</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42663</c:v>
+                  <c:v>42677</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42664</c:v>
+                  <c:v>42678</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42665</c:v>
+                  <c:v>42679</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42666</c:v>
+                  <c:v>42680</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42667</c:v>
+                  <c:v>42681</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42668</c:v>
+                  <c:v>42682</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42669</c:v>
+                  <c:v>42683</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42670</c:v>
+                  <c:v>42684</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42671</c:v>
+                  <c:v>42685</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42672</c:v>
+                  <c:v>42686</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42673</c:v>
+                  <c:v>42687</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>42674</c:v>
+                  <c:v>42688</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>42675</c:v>
+                  <c:v>42689</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42676</c:v>
+                  <c:v>42690</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>42677</c:v>
+                  <c:v>42691</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>42678</c:v>
+                  <c:v>42692</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>42679</c:v>
+                  <c:v>42693</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>42680</c:v>
+                  <c:v>42694</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>42681</c:v>
+                  <c:v>42695</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>42682</c:v>
+                  <c:v>42696</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>42683</c:v>
+                  <c:v>42697</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>42684</c:v>
+                  <c:v>42698</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>42685</c:v>
+                  <c:v>42699</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>42686</c:v>
+                  <c:v>42700</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2208,94 +2205,94 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>42657</c:v>
+                  <c:v>42671</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42658</c:v>
+                  <c:v>42672</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42659</c:v>
+                  <c:v>42673</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42660</c:v>
+                  <c:v>42674</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42661</c:v>
+                  <c:v>42675</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42662</c:v>
+                  <c:v>42676</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42663</c:v>
+                  <c:v>42677</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42664</c:v>
+                  <c:v>42678</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42665</c:v>
+                  <c:v>42679</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42666</c:v>
+                  <c:v>42680</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42667</c:v>
+                  <c:v>42681</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42668</c:v>
+                  <c:v>42682</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42669</c:v>
+                  <c:v>42683</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42670</c:v>
+                  <c:v>42684</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42671</c:v>
+                  <c:v>42685</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42672</c:v>
+                  <c:v>42686</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42673</c:v>
+                  <c:v>42687</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>42674</c:v>
+                  <c:v>42688</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>42675</c:v>
+                  <c:v>42689</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42676</c:v>
+                  <c:v>42690</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>42677</c:v>
+                  <c:v>42691</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>42678</c:v>
+                  <c:v>42692</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>42679</c:v>
+                  <c:v>42693</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>42680</c:v>
+                  <c:v>42694</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>42681</c:v>
+                  <c:v>42695</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>42682</c:v>
+                  <c:v>42696</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>42683</c:v>
+                  <c:v>42697</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>42684</c:v>
+                  <c:v>42698</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>42685</c:v>
+                  <c:v>42699</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>42686</c:v>
+                  <c:v>42700</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2410,7 +2407,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>#N/A</c:v>
+                  <c:v>プロジェクトの開始</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2717,7 +2714,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>#N/A</c:v>
+                  <c:v>インタープリタ（池田）</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3024,7 +3021,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>プロジェクトの開始</c:v>
+                  <c:v>インタープリタ結合テスト（池田・宮上・藤田）</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3331,7 +3328,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>インタープリタ（池田）</c:v>
+                  <c:v>インタープリタデバッグ（池田）</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3641,7 +3638,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>インタープリタデバッグ（池田・宮上）</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3968,46 +3965,46 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>#N/A</c:v>
@@ -4093,46 +4090,46 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.5</c:v>
@@ -4254,7 +4251,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>#N/A</c:v>
@@ -4296,7 +4293,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>#N/A</c:v>
@@ -4532,6 +4529,686 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
+                      <c:v>28</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{AF4057B4-70A2-4D38-9B8B-173A04577F8E}</c15:txfldGUID>
+                      <c15:f>計算!$E$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>28</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>計算!$F$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>29</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{EDA4A186-A5E5-44CF-BD95-002C139A6999}</c15:txfldGUID>
+                      <c15:f>計算!$F$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>29</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>計算!$G$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>30</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{89C373C6-3433-411F-84C6-B8E42DCA2073}</c15:txfldGUID>
+                      <c15:f>計算!$G$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>30</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>計算!$H$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>31</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{B35FEA2A-6D00-44F9-ACEE-21EDDC77A981}</c15:txfldGUID>
+                      <c15:f>計算!$H$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>31</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>計算!$I$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>01</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{7DFA0045-802D-4D14-AE79-D5164EFC507B}</c15:txfldGUID>
+                      <c15:f>計算!$I$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>01</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>計算!$J$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>02</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{FC65AAD7-EC3F-423C-9268-62F86A384218}</c15:txfldGUID>
+                      <c15:f>計算!$J$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>02</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>計算!$K$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>03</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{2DD84483-F34C-46F4-8552-D69814B65F37}</c15:txfldGUID>
+                      <c15:f>計算!$K$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>03</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>計算!$L$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>04</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{2DF6C2F2-2B23-4F5F-8A53-308BC5C0837C}</c15:txfldGUID>
+                      <c15:f>計算!$L$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>04</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>計算!$M$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>05</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{5CE9B74C-16E3-4760-AC98-E5071A252498}</c15:txfldGUID>
+                      <c15:f>計算!$M$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>05</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>計算!$N$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>06</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{17ED1AD8-B4B0-4428-9917-112F3A7F8FBF}</c15:txfldGUID>
+                      <c15:f>計算!$N$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>06</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>計算!$O$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>07</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{40295754-EE65-485C-897E-EBA274776B5A}</c15:txfldGUID>
+                      <c15:f>計算!$O$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>07</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>計算!$P$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>08</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{888DCB42-1DF4-42F3-81AE-017B7E4D9CF6}</c15:txfldGUID>
+                      <c15:f>計算!$P$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>08</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>計算!$Q$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>09</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{471F1BE9-4D6F-4EBB-BE72-34565A714FC2}</c15:txfldGUID>
+                      <c15:f>計算!$Q$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>09</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>計算!$R$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>10</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{6B7E5F4D-B01C-4A5F-854C-BA634D4DFD3F}</c15:txfldGUID>
+                      <c15:f>計算!$R$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>10</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>計算!$S$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>11</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{551FE22A-9C0A-4EF3-9E74-85CAD953D575}</c15:txfldGUID>
+                      <c15:f>計算!$S$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>11</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>計算!$T$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>12</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{DE40FF16-749B-4BD3-BF83-CF4613872A4B}</c15:txfldGUID>
+                      <c15:f>計算!$T$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>12</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="16"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>計算!$U$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>13</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{B0093E50-8A5F-4FFF-9D0A-E65367A4E42F}</c15:txfldGUID>
+                      <c15:f>計算!$U$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>13</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="17"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>計算!$V$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
                       <c:v>14</c:v>
                     </c:pt>
                   </c:strCache>
@@ -4549,8 +5226,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{4DB36773-FB43-413C-B357-E12BB85C06CC}</c15:txfldGUID>
-                      <c15:f>計算!$E$72</c15:f>
+                      <c15:txfldGUID>{66DB2F67-26AA-488A-B70F-76DA5B8FC969}</c15:txfldGUID>
+                      <c15:f>計算!$V$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4564,11 +5241,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="1"/>
+              <c:idx val="18"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>計算!$F$72</c:f>
+                  <c:f>計算!$W$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4589,8 +5266,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{7994F14F-F5EA-4C5E-AEC8-89BA7ECFC867}</c15:txfldGUID>
-                      <c15:f>計算!$F$72</c15:f>
+                      <c15:txfldGUID>{7AA9BCA2-D3B4-43E5-A46C-BC28F2073049}</c15:txfldGUID>
+                      <c15:f>計算!$W$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4604,11 +5281,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="2"/>
+              <c:idx val="19"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>計算!$G$72</c:f>
+                  <c:f>計算!$X$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4629,8 +5306,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{26F53385-CC9D-4925-9CC7-D86F0780C6CA}</c15:txfldGUID>
-                      <c15:f>計算!$G$72</c15:f>
+                      <c15:txfldGUID>{A1739D9C-0F98-4458-8258-E7DBE2BD94AA}</c15:txfldGUID>
+                      <c15:f>計算!$X$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4644,11 +5321,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="3"/>
+              <c:idx val="20"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>計算!$H$72</c:f>
+                  <c:f>計算!$Y$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4669,8 +5346,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{7315CD08-4587-4FD0-81D7-723BB937D061}</c15:txfldGUID>
-                      <c15:f>計算!$H$72</c15:f>
+                      <c15:txfldGUID>{1B5F53BB-8F27-4823-943A-A5D7986A2FF5}</c15:txfldGUID>
+                      <c15:f>計算!$Y$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4684,11 +5361,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="4"/>
+              <c:idx val="21"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>計算!$I$72</c:f>
+                  <c:f>計算!$Z$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4709,8 +5386,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{D92E4B96-FC0B-412D-9434-3A9D4A728929}</c15:txfldGUID>
-                      <c15:f>計算!$I$72</c15:f>
+                      <c15:txfldGUID>{7A80D4ED-AAFE-47B0-B189-50223A3BF570}</c15:txfldGUID>
+                      <c15:f>計算!$Z$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4724,11 +5401,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="5"/>
+              <c:idx val="22"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>計算!$J$72</c:f>
+                  <c:f>計算!$AA$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4749,8 +5426,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{B730E2B7-28F5-461A-9475-ECBEEBEE1CDA}</c15:txfldGUID>
-                      <c15:f>計算!$J$72</c15:f>
+                      <c15:txfldGUID>{94B3E653-669C-4517-89B9-B7AD6F2025F2}</c15:txfldGUID>
+                      <c15:f>計算!$AA$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4764,11 +5441,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="6"/>
+              <c:idx val="23"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>計算!$K$72</c:f>
+                  <c:f>計算!$AB$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4789,8 +5466,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{6D849DE0-E6EA-47EE-8883-5487D20B7CD3}</c15:txfldGUID>
-                      <c15:f>計算!$K$72</c15:f>
+                      <c15:txfldGUID>{595F1A46-733A-4BBB-9C87-79F5B5E672C5}</c15:txfldGUID>
+                      <c15:f>計算!$AB$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4804,11 +5481,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="7"/>
+              <c:idx val="24"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>計算!$L$72</c:f>
+                  <c:f>計算!$AC$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4829,8 +5506,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{6A555F32-DFA6-4ABA-B6B9-B53153CF02A9}</c15:txfldGUID>
-                      <c15:f>計算!$L$72</c15:f>
+                      <c15:txfldGUID>{C48FDB2F-3ABC-4EC3-8652-F2F60B6A96C2}</c15:txfldGUID>
+                      <c15:f>計算!$AC$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4844,11 +5521,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="8"/>
+              <c:idx val="25"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>計算!$M$72</c:f>
+                  <c:f>計算!$AD$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4869,8 +5546,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{5B763376-6993-4A47-B162-61785D84C76B}</c15:txfldGUID>
-                      <c15:f>計算!$M$72</c15:f>
+                      <c15:txfldGUID>{2A1BD500-8AFD-4738-AF4F-30099543FE2C}</c15:txfldGUID>
+                      <c15:f>計算!$AD$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4884,11 +5561,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="9"/>
+              <c:idx val="26"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>計算!$N$72</c:f>
+                  <c:f>計算!$AE$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4909,8 +5586,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{8D707538-9272-4449-A19C-A269797E0E3E}</c15:txfldGUID>
-                      <c15:f>計算!$N$72</c15:f>
+                      <c15:txfldGUID>{63D7E5B4-0D16-44BD-9BA0-EAFEAE91DBE0}</c15:txfldGUID>
+                      <c15:f>計算!$AE$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4924,11 +5601,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="10"/>
+              <c:idx val="27"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>計算!$O$72</c:f>
+                  <c:f>計算!$AF$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4949,8 +5626,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{545188A0-13AF-4127-A349-FF6DE4AFD5B2}</c15:txfldGUID>
-                      <c15:f>計算!$O$72</c15:f>
+                      <c15:txfldGUID>{E0B25F2A-B155-4A09-B0A9-197A3C1F026F}</c15:txfldGUID>
+                      <c15:f>計算!$AF$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4964,11 +5641,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="11"/>
+              <c:idx val="28"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>計算!$P$72</c:f>
+                  <c:f>計算!$AG$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4989,8 +5666,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{7634CB36-C5AF-4761-BAFB-FFD1ECF040FB}</c15:txfldGUID>
-                      <c15:f>計算!$P$72</c15:f>
+                      <c15:txfldGUID>{9DFA4D21-1E08-4786-88BF-CE3718696EA6}</c15:txfldGUID>
+                      <c15:f>計算!$AG$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5004,11 +5681,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="12"/>
+              <c:idx val="29"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>計算!$Q$72</c:f>
+                  <c:f>計算!$AH$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5029,692 +5706,12 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{C0F3E445-7F5B-4728-85E7-E9A558AD6690}</c15:txfldGUID>
-                      <c15:f>計算!$Q$72</c15:f>
+                      <c15:txfldGUID>{672D34D1-A72B-47D2-B10E-0020F49F35FC}</c15:txfldGUID>
+                      <c15:f>計算!$AH$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
                           <c:v>26</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="13"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>計算!$R$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>27</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{00569200-96BB-40F1-9AE7-99DCB6E521D7}</c15:txfldGUID>
-                      <c15:f>計算!$R$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>27</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="14"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>計算!$S$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>28</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{01FBA7EA-6F62-4D06-96F6-18943184E328}</c15:txfldGUID>
-                      <c15:f>計算!$S$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>28</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="15"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>計算!$T$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>29</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{0089B515-D862-4F2F-9190-12C3823AAE80}</c15:txfldGUID>
-                      <c15:f>計算!$T$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>29</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="16"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>計算!$U$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>30</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{3231549B-E9DB-45A9-97D7-44BB18F950DB}</c15:txfldGUID>
-                      <c15:f>計算!$U$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>30</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="17"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>計算!$V$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>31</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{5889A72C-EB99-41ED-93DE-20BF659575A2}</c15:txfldGUID>
-                      <c15:f>計算!$V$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>31</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="18"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>計算!$W$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>01</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{39C8418F-1D9B-4FB4-A239-6D7C75E78FC7}</c15:txfldGUID>
-                      <c15:f>計算!$W$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>01</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="19"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>計算!$X$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>02</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{60721A04-9CAD-48CD-B989-4EA5B0F56ADF}</c15:txfldGUID>
-                      <c15:f>計算!$X$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>02</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="20"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>計算!$Y$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>03</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{4E995897-2A9E-4FD9-8E9F-FC3EDBABEA09}</c15:txfldGUID>
-                      <c15:f>計算!$Y$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>03</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="21"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>計算!$Z$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>04</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{D35FEE9A-443F-4B58-A43E-DE556F180509}</c15:txfldGUID>
-                      <c15:f>計算!$Z$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>04</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="22"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>計算!$AA$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>05</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{CDC5C634-220B-48C6-A4C0-1F0F08F5130B}</c15:txfldGUID>
-                      <c15:f>計算!$AA$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>05</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="23"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>計算!$AB$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>06</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{E4BBEFD6-8DC7-4767-A99A-7EB7E8C8AB24}</c15:txfldGUID>
-                      <c15:f>計算!$AB$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>06</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="24"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>計算!$AC$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>07</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{4FD0247C-F23D-4841-B8CE-2C4DE35807F8}</c15:txfldGUID>
-                      <c15:f>計算!$AC$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>07</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="25"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>計算!$AD$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>08</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A84E74E0-CA29-4715-9344-72386267F670}</c15:txfldGUID>
-                      <c15:f>計算!$AD$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>08</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="26"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>計算!$AE$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>09</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{DBFCFF1B-1581-429E-8F4E-256E9BB917D0}</c15:txfldGUID>
-                      <c15:f>計算!$AE$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>09</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="27"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>計算!$AF$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>10</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{E4BB3778-528A-4C1C-8140-E8A9F7C20FF1}</c15:txfldGUID>
-                      <c15:f>計算!$AF$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>10</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="28"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>計算!$AG$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>11</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{770A8A77-8692-4F82-8F07-E866F6F0EC2F}</c15:txfldGUID>
-                      <c15:f>計算!$AG$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>11</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="29"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>計算!$AH$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>12</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{743ADEBD-4B10-4350-BE9B-3FF5B95349A8}</c15:txfldGUID>
-                      <c15:f>計算!$AH$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>12</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -5900,7 +5897,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{D88CE13B-B57B-49C5-A125-E1AA44505ADF}</c15:txfldGUID>
+                      <c15:txfldGUID>{1DBF2E4C-559B-4E6D-9A9D-302115372282}</c15:txfldGUID>
                       <c15:f>計算!$E$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5940,7 +5937,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{41BA8DBB-C2D2-4CCB-AFDA-5CC1598D5063}</c15:txfldGUID>
+                      <c15:txfldGUID>{61328B6F-6E3C-4B56-AED0-829C35A2E998}</c15:txfldGUID>
                       <c15:f>計算!$F$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5980,7 +5977,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{8C170EBC-38B4-4C13-9B17-092C3C65AB66}</c15:txfldGUID>
+                      <c15:txfldGUID>{AC15B778-E1CF-4BAE-B3D4-84A2DEA40C69}</c15:txfldGUID>
                       <c15:f>計算!$G$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6020,7 +6017,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{701BDA88-2EE0-475D-A8C5-DB3185B1C5C7}</c15:txfldGUID>
+                      <c15:txfldGUID>{FB12B8E8-E0FF-4FC8-878A-F8E5AD802451}</c15:txfldGUID>
                       <c15:f>計算!$H$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6060,7 +6057,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{4D9085DF-6C1C-43EC-AEB2-3CB4531A54C8}</c15:txfldGUID>
+                      <c15:txfldGUID>{97459B70-3182-4EFA-98F2-7FCCC65136E7}</c15:txfldGUID>
                       <c15:f>計算!$I$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6100,7 +6097,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{B2452F07-88C6-4E97-946F-DAEE664DD005}</c15:txfldGUID>
+                      <c15:txfldGUID>{15C15FAD-BD1A-4FB1-98B3-FCAB3F9B48D0}</c15:txfldGUID>
                       <c15:f>計算!$J$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6140,7 +6137,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{BDD2E720-FA2D-4B47-B305-FD288C67B988}</c15:txfldGUID>
+                      <c15:txfldGUID>{57E71963-5AB8-4119-9FB9-55DF9C904180}</c15:txfldGUID>
                       <c15:f>計算!$K$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6180,7 +6177,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{D4749170-F10B-4814-84AA-64CB9E035496}</c15:txfldGUID>
+                      <c15:txfldGUID>{076B982C-1844-41E2-8081-81941D141DD4}</c15:txfldGUID>
                       <c15:f>計算!$L$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6220,7 +6217,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{7D7B7B80-EADE-49AB-8082-688B1A759E9F}</c15:txfldGUID>
+                      <c15:txfldGUID>{94C98DBE-B157-424A-A240-EC3CFA0392FF}</c15:txfldGUID>
                       <c15:f>計算!$M$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6260,7 +6257,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{4D398DE6-CFF5-4C07-9D91-C25DAA508DB9}</c15:txfldGUID>
+                      <c15:txfldGUID>{9B104B45-5A90-49AC-A6AC-C137B376F77B}</c15:txfldGUID>
                       <c15:f>計算!$N$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6300,7 +6297,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{D1BD4B88-E6A6-4843-94C2-B1B84A46AB53}</c15:txfldGUID>
+                      <c15:txfldGUID>{645540C7-935C-42A6-A9BA-C8859EF51B24}</c15:txfldGUID>
                       <c15:f>計算!$O$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6340,7 +6337,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{61318021-E0A4-4BE5-B4A7-B5652219D12E}</c15:txfldGUID>
+                      <c15:txfldGUID>{68DD44C9-2C61-4F9F-A4C7-3AAFCC24C7F5}</c15:txfldGUID>
                       <c15:f>計算!$P$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6380,7 +6377,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{3C51F75B-F16F-4A82-AB31-23910B6CB371}</c15:txfldGUID>
+                      <c15:txfldGUID>{12CB7B25-70D3-4CE0-BC16-C408D82C562B}</c15:txfldGUID>
                       <c15:f>計算!$Q$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6420,7 +6417,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{B33E9F49-FCDC-407F-885A-6CC1DA7CCFAA}</c15:txfldGUID>
+                      <c15:txfldGUID>{CB1DD25C-6677-41DF-959D-C5EB1E374C18}</c15:txfldGUID>
                       <c15:f>計算!$R$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6460,7 +6457,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{E8248DAA-D78C-4E61-A905-12F87323837B}</c15:txfldGUID>
+                      <c15:txfldGUID>{D5352F8F-2B72-49E6-9AF1-69AEDD8F187E}</c15:txfldGUID>
                       <c15:f>計算!$S$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6500,7 +6497,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{71BC48D6-F43E-41C9-AF4C-9CEE39298632}</c15:txfldGUID>
+                      <c15:txfldGUID>{086D8A06-1202-4318-9F70-327F3D00508A}</c15:txfldGUID>
                       <c15:f>計算!$T$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6540,7 +6537,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{7656D887-FE3F-41C5-8D82-00BAD8DAC9D5}</c15:txfldGUID>
+                      <c15:txfldGUID>{47201345-862F-47BB-82B9-531D4B455AF2}</c15:txfldGUID>
                       <c15:f>計算!$U$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6580,7 +6577,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{188F4F7C-5458-4092-A31B-F687E55418FF}</c15:txfldGUID>
+                      <c15:txfldGUID>{4696960F-510D-4C8E-A63A-652F8B9DCE44}</c15:txfldGUID>
                       <c15:f>計算!$V$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6620,7 +6617,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{F4CE999E-7AD2-47C2-8FDB-F1D969E5522E}</c15:txfldGUID>
+                      <c15:txfldGUID>{C6D58947-4B7C-493E-B617-E4E0E3EB76A5}</c15:txfldGUID>
                       <c15:f>計算!$W$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6660,7 +6657,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{D856F58C-892F-4C31-B91D-DA4CA0CA1183}</c15:txfldGUID>
+                      <c15:txfldGUID>{B03E2D7B-E0F6-4845-B2F6-6B9EA2446ACC}</c15:txfldGUID>
                       <c15:f>計算!$X$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6700,7 +6697,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{732359CA-F17C-480D-9CD0-5DB3865850E3}</c15:txfldGUID>
+                      <c15:txfldGUID>{A64D268B-2F2B-4FF7-9163-19E4F6694ABD}</c15:txfldGUID>
                       <c15:f>計算!$Y$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6740,7 +6737,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{6F7784AE-239F-47C9-96E6-AC41E7046733}</c15:txfldGUID>
+                      <c15:txfldGUID>{9A2E81CC-7FFC-41B3-99E7-872CA86411A0}</c15:txfldGUID>
                       <c15:f>計算!$Z$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6780,7 +6777,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{BB9EF10B-58A2-4CB0-99E5-3EADC555B787}</c15:txfldGUID>
+                      <c15:txfldGUID>{7FCB79B4-8DD5-414E-988A-AD6782E0578A}</c15:txfldGUID>
                       <c15:f>計算!$AA$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6820,7 +6817,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{1DDFAB99-313C-437F-92E4-DBCA221ACA12}</c15:txfldGUID>
+                      <c15:txfldGUID>{2F583C50-9AB8-4DA2-9C8F-7EDED7AFF407}</c15:txfldGUID>
                       <c15:f>計算!$AB$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6860,7 +6857,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{5E19EAEE-BA69-40C2-A800-81621DC6ABC0}</c15:txfldGUID>
+                      <c15:txfldGUID>{F7F8F635-57A4-4E6F-A067-CE32DC48857B}</c15:txfldGUID>
                       <c15:f>計算!$AC$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6900,7 +6897,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{071B1F4C-AFEC-46A4-8407-BDE884037F44}</c15:txfldGUID>
+                      <c15:txfldGUID>{CB37ACE1-E128-42EB-8462-8CC3D4F0CBBB}</c15:txfldGUID>
                       <c15:f>計算!$AD$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6940,7 +6937,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{AF0CCE40-B06E-427F-93DB-CB55F6410D9F}</c15:txfldGUID>
+                      <c15:txfldGUID>{026D22A4-D24B-4F07-BD37-39439C9B7964}</c15:txfldGUID>
                       <c15:f>計算!$AE$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6980,7 +6977,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{26C1F787-6C94-4D5C-9A4A-ECF7FC56EBBC}</c15:txfldGUID>
+                      <c15:txfldGUID>{985767C6-BF48-4DEA-85F2-C559A5CA4758}</c15:txfldGUID>
                       <c15:f>計算!$AF$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7020,7 +7017,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{F6CF5674-0443-4DCC-B23B-360CC856C00B}</c15:txfldGUID>
+                      <c15:txfldGUID>{9300DCB1-84E9-4584-AB4F-79CA59DE3FB8}</c15:txfldGUID>
                       <c15:f>計算!$AG$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7060,7 +7057,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{55B4B69E-C3B0-4140-B34F-29CD731A76BC}</c15:txfldGUID>
+                      <c15:txfldGUID>{74E59A3A-8ECD-4CC8-AA91-15F946AEABD4}</c15:txfldGUID>
                       <c15:f>計算!$AH$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7252,46 +7249,46 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>#N/A</c:v>
@@ -7377,46 +7374,46 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>13</c:v>
@@ -7469,11 +7466,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="540438464"/>
-        <c:axId val="540431408"/>
+        <c:axId val="190715432"/>
+        <c:axId val="190704064"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="540438464"/>
+        <c:axId val="190715432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7496,14 +7493,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="540431408"/>
+        <c:crossAx val="190704064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="540431408"/>
+        <c:axId val="190704064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.5"/>
@@ -7515,7 +7512,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="540438464"/>
+        <c:crossAx val="190715432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -7897,7 +7894,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7915,7 +7912,7 @@
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -7943,7 +7940,7 @@
       </c>
       <c r="D20" s="11">
         <f ca="1">TODAY()-3</f>
-        <v>42657</v>
+        <v>42671</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
@@ -7981,7 +7978,7 @@
       </c>
       <c r="D23" s="15">
         <f ca="1">D20+3</f>
-        <v>42660</v>
+        <v>42674</v>
       </c>
       <c r="E23" s="15"/>
       <c r="F23" s="14"/>
@@ -8026,14 +8023,14 @@
         <v>4</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D26" s="15">
-        <v>42705</v>
+        <v>42688</v>
       </c>
       <c r="E26" s="15">
         <f>Activities[[#This Row],[開始]]+15</f>
-        <v>42720</v>
+        <v>42703</v>
       </c>
       <c r="F26" s="14"/>
     </row>
@@ -8043,15 +8040,15 @@
         <v>5</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D27" s="15">
         <f>D26</f>
-        <v>42705</v>
+        <v>42688</v>
       </c>
       <c r="E27" s="15">
         <f>Activities[[#This Row],[開始]]+15</f>
-        <v>42720</v>
+        <v>42703</v>
       </c>
       <c r="F27" s="14"/>
     </row>
@@ -8061,7 +8058,7 @@
         <v>5</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D28" s="15">
         <f>E24+1</f>
@@ -8078,7 +8075,7 @@
         <v>6</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D29" s="15">
         <f>E28+1</f>
@@ -8095,7 +8092,7 @@
         <v>7</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D30" s="15">
         <f>D29</f>
@@ -8113,7 +8110,7 @@
         <v>8</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" s="15">
         <f>E30+1</f>
@@ -8124,7 +8121,7 @@
         <v>42735</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8215,7 +8212,7 @@
       </c>
       <c r="D3" s="18">
         <f ca="1">TODAY()</f>
-        <v>42660</v>
+        <v>42674</v>
       </c>
       <c r="E3" s="18"/>
     </row>
@@ -8248,7 +8245,7 @@
       </c>
       <c r="D9" s="17">
         <f ca="1">SUMPRODUCT( ((Activities[開始]&gt;=StartDateWindow)+(Activities[終了]&gt;=StartDateWindow)&gt;0)*(Activities[開始]&lt;=(StartDateWindow+WindowDays-1)) )</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E9" s="17" t="e">
         <f>NA()</f>
@@ -8267,7 +8264,7 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D11" s="17">
         <f ca="1">D10-MIN(D10,D9)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E11" s="17" t="e">
         <f>NA()</f>
@@ -8320,7 +8317,7 @@
       <c r="C17" s="19"/>
       <c r="E17" s="17">
         <f t="array" aca="1" ref="E17" ca="1">INDEX(Activities[Id],MATCH(1, (Activities[Id]&gt;E16)*((Activities[開始]&gt;=StartDateWindow)+(Activities[終了]&gt;=StartDateWindow)&gt;0)*(Activities[開始]&lt;=(StartDateWindow+WindowDays-1)), 0))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F17" s="17" t="e">
         <f t="shared" ca="1" si="0"/>
@@ -8328,9 +8325,9 @@
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="E18" s="17" t="e">
+      <c r="E18" s="17">
         <f t="array" aca="1" ref="E18" ca="1">INDEX(Activities[Id],MATCH(1, (Activities[Id]&gt;E17)*((Activities[開始]&gt;=StartDateWindow)+(Activities[終了]&gt;=StartDateWindow)&gt;0)*(Activities[開始]&lt;=(StartDateWindow+WindowDays-1)), 0))</f>
-        <v>#N/A</v>
+        <v>5</v>
       </c>
       <c r="F18" s="17" t="e">
         <f t="shared" ca="1" si="0"/>
@@ -8342,9 +8339,9 @@
         <f t="array" aca="1" ref="E19" ca="1">INDEX(Activities[Id],MATCH(1, (Activities[Id]&gt;E18)*((Activities[開始]&gt;=StartDateWindow)+(Activities[終了]&gt;=StartDateWindow)&gt;0)*(Activities[開始]&lt;=(StartDateWindow+WindowDays-1)), 0))</f>
         <v>#N/A</v>
       </c>
-      <c r="F19" s="17" t="e">
+      <c r="F19" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.3">
@@ -8352,9 +8349,9 @@
         <f t="array" aca="1" ref="E20" ca="1">INDEX(Activities[Id],MATCH(1, (Activities[Id]&gt;E19)*((Activities[開始]&gt;=StartDateWindow)+(Activities[終了]&gt;=StartDateWindow)&gt;0)*(Activities[開始]&lt;=(StartDateWindow+WindowDays-1)), 0))</f>
         <v>#N/A</v>
       </c>
-      <c r="F20" s="17" t="e">
+      <c r="F20" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>#N/A</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.3">
@@ -8364,7 +8361,7 @@
       </c>
       <c r="F21" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.3">
@@ -8374,7 +8371,7 @@
       </c>
       <c r="F22" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.3">
@@ -8382,9 +8379,9 @@
         <f t="array" aca="1" ref="E23" ca="1">INDEX(Activities[Id],MATCH(1, (Activities[Id]&gt;E22)*((Activities[開始]&gt;=StartDateWindow)+(Activities[終了]&gt;=StartDateWindow)&gt;0)*(Activities[開始]&lt;=(StartDateWindow+WindowDays-1)), 0))</f>
         <v>#N/A</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="17" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.3">
@@ -8393,7 +8390,7 @@
       </c>
       <c r="D25" s="18">
         <f ca="1">StartDate+WindowOffset</f>
-        <v>42657</v>
+        <v>42671</v>
       </c>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.3">
@@ -8410,7 +8407,7 @@
       </c>
       <c r="D28" s="19">
         <f ca="1">'プロジェクト タイムライン'!D20</f>
-        <v>42657</v>
+        <v>42671</v>
       </c>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.3">
@@ -8436,127 +8433,127 @@
       </c>
       <c r="E31" s="18">
         <f ca="1">StartDateWindow</f>
-        <v>42657</v>
+        <v>42671</v>
       </c>
       <c r="F31" s="18">
         <f t="shared" ref="F31:AI31" ca="1" si="1">E31+1</f>
-        <v>42658</v>
+        <v>42672</v>
       </c>
       <c r="G31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42659</v>
+        <v>42673</v>
       </c>
       <c r="H31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42660</v>
+        <v>42674</v>
       </c>
       <c r="I31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42661</v>
+        <v>42675</v>
       </c>
       <c r="J31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42662</v>
+        <v>42676</v>
       </c>
       <c r="K31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42663</v>
+        <v>42677</v>
       </c>
       <c r="L31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42664</v>
+        <v>42678</v>
       </c>
       <c r="M31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42665</v>
+        <v>42679</v>
       </c>
       <c r="N31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42666</v>
+        <v>42680</v>
       </c>
       <c r="O31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42667</v>
+        <v>42681</v>
       </c>
       <c r="P31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42668</v>
+        <v>42682</v>
       </c>
       <c r="Q31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42669</v>
+        <v>42683</v>
       </c>
       <c r="R31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42670</v>
+        <v>42684</v>
       </c>
       <c r="S31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42671</v>
+        <v>42685</v>
       </c>
       <c r="T31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42672</v>
+        <v>42686</v>
       </c>
       <c r="U31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42673</v>
+        <v>42687</v>
       </c>
       <c r="V31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42674</v>
+        <v>42688</v>
       </c>
       <c r="W31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42675</v>
+        <v>42689</v>
       </c>
       <c r="X31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42676</v>
+        <v>42690</v>
       </c>
       <c r="Y31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42677</v>
+        <v>42691</v>
       </c>
       <c r="Z31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42678</v>
+        <v>42692</v>
       </c>
       <c r="AA31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42679</v>
+        <v>42693</v>
       </c>
       <c r="AB31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42680</v>
+        <v>42694</v>
       </c>
       <c r="AC31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42681</v>
+        <v>42695</v>
       </c>
       <c r="AD31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42682</v>
+        <v>42696</v>
       </c>
       <c r="AE31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42683</v>
+        <v>42697</v>
       </c>
       <c r="AF31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42684</v>
+        <v>42698</v>
       </c>
       <c r="AG31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42685</v>
+        <v>42699</v>
       </c>
       <c r="AH31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42686</v>
+        <v>42700</v>
       </c>
       <c r="AI31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42687</v>
+        <v>42701</v>
       </c>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.3">
@@ -9130,13 +9127,13 @@
       <c r="B36" s="17">
         <v>5</v>
       </c>
-      <c r="C36" s="17" t="e">
+      <c r="C36" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D36" s="17" t="e">
+        <v>1</v>
+      </c>
+      <c r="D36" s="17" t="str">
         <f ca="1">INDEX(Activities[アクティビティ],MATCH($C36,Activities[Id],0))</f>
-        <v>#N/A</v>
+        <v>プロジェクトの開始</v>
       </c>
       <c r="E36" s="17" t="e">
         <f ca="1">GridCalc</f>
@@ -9271,13 +9268,13 @@
       <c r="B37" s="17">
         <v>6</v>
       </c>
-      <c r="C37" s="17" t="e">
+      <c r="C37" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D37" s="17" t="e">
+        <v>3</v>
+      </c>
+      <c r="D37" s="17" t="str">
         <f ca="1">INDEX(Activities[アクティビティ],MATCH($C37,Activities[Id],0))</f>
-        <v>#N/A</v>
+        <v>インタープリタ（池田）</v>
       </c>
       <c r="E37" s="17" t="e">
         <f ca="1">GridCalc</f>
@@ -9414,11 +9411,11 @@
       </c>
       <c r="C38" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D38" s="17" t="str">
         <f ca="1">INDEX(Activities[アクティビティ],MATCH($C38,Activities[Id],0))</f>
-        <v>プロジェクトの開始</v>
+        <v>インタープリタ結合テスト（池田・宮上・藤田）</v>
       </c>
       <c r="E38" s="17" t="e">
         <f ca="1">GridCalc</f>
@@ -9555,11 +9552,11 @@
       </c>
       <c r="C39" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" s="17" t="str">
         <f ca="1">INDEX(Activities[アクティビティ],MATCH($C39,Activities[Id],0))</f>
-        <v>インタープリタ（池田）</v>
+        <v>インタープリタデバッグ（池田）</v>
       </c>
       <c r="E39" s="17" t="e">
         <f ca="1">GridCalc</f>
@@ -9694,13 +9691,13 @@
       <c r="B40" s="17">
         <v>9</v>
       </c>
-      <c r="C40" s="17">
+      <c r="C40" s="17" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="D40" s="17" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D40" s="17" t="e">
         <f ca="1">INDEX(Activities[アクティビティ],MATCH($C40,Activities[Id],0))</f>
-        <v>インタープリタデバッグ（池田・宮上）</v>
+        <v>#N/A</v>
       </c>
       <c r="E40" s="17" t="e">
         <f ca="1">GridCalc</f>
@@ -9830,123 +9827,123 @@
     <row r="43" spans="1:35" x14ac:dyDescent="0.3">
       <c r="E43" s="18">
         <f ca="1">E31</f>
-        <v>42657</v>
+        <v>42671</v>
       </c>
       <c r="F43" s="18">
         <f t="shared" ref="F43:AH43" ca="1" si="4">F31</f>
-        <v>42658</v>
+        <v>42672</v>
       </c>
       <c r="G43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42659</v>
+        <v>42673</v>
       </c>
       <c r="H43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42660</v>
+        <v>42674</v>
       </c>
       <c r="I43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42661</v>
+        <v>42675</v>
       </c>
       <c r="J43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42662</v>
+        <v>42676</v>
       </c>
       <c r="K43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42663</v>
+        <v>42677</v>
       </c>
       <c r="L43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42664</v>
+        <v>42678</v>
       </c>
       <c r="M43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42665</v>
+        <v>42679</v>
       </c>
       <c r="N43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42666</v>
+        <v>42680</v>
       </c>
       <c r="O43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42667</v>
+        <v>42681</v>
       </c>
       <c r="P43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42668</v>
+        <v>42682</v>
       </c>
       <c r="Q43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42669</v>
+        <v>42683</v>
       </c>
       <c r="R43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42670</v>
+        <v>42684</v>
       </c>
       <c r="S43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42671</v>
+        <v>42685</v>
       </c>
       <c r="T43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42672</v>
+        <v>42686</v>
       </c>
       <c r="U43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42673</v>
+        <v>42687</v>
       </c>
       <c r="V43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42674</v>
+        <v>42688</v>
       </c>
       <c r="W43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42675</v>
+        <v>42689</v>
       </c>
       <c r="X43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42676</v>
+        <v>42690</v>
       </c>
       <c r="Y43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42677</v>
+        <v>42691</v>
       </c>
       <c r="Z43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42678</v>
+        <v>42692</v>
       </c>
       <c r="AA43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42679</v>
+        <v>42693</v>
       </c>
       <c r="AB43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42680</v>
+        <v>42694</v>
       </c>
       <c r="AC43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42681</v>
+        <v>42695</v>
       </c>
       <c r="AD43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42682</v>
+        <v>42696</v>
       </c>
       <c r="AE43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42683</v>
+        <v>42697</v>
       </c>
       <c r="AF43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42684</v>
+        <v>42698</v>
       </c>
       <c r="AG43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42685</v>
+        <v>42699</v>
       </c>
       <c r="AH43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42686</v>
+        <v>42700</v>
       </c>
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.3">
@@ -10470,13 +10467,13 @@
       </c>
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="C48" s="17" t="e">
+      <c r="C48" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D48" s="17" t="e">
+        <v>1</v>
+      </c>
+      <c r="D48" s="17" t="str">
         <f ca="1">UPPER(INDEX(Activities[アクティビティ],MATCH($C48,Activities[Id],0)))</f>
-        <v>#N/A</v>
+        <v>プロジェクトの開始</v>
       </c>
       <c r="E48" s="17" t="e">
         <f t="shared" ref="E48:AH48" ca="1" si="10">IF(ISERROR(F36),E36,NA())</f>
@@ -10600,13 +10597,13 @@
       </c>
     </row>
     <row r="49" spans="3:34" x14ac:dyDescent="0.3">
-      <c r="C49" s="17" t="e">
+      <c r="C49" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D49" s="17" t="e">
+        <v>3</v>
+      </c>
+      <c r="D49" s="17" t="str">
         <f ca="1">UPPER(INDEX(Activities[アクティビティ],MATCH($C49,Activities[Id],0)))</f>
-        <v>#N/A</v>
+        <v>インタープリタ（池田）</v>
       </c>
       <c r="E49" s="17" t="e">
         <f t="shared" ref="E49:AH49" ca="1" si="11">IF(ISERROR(F37),E37,NA())</f>
@@ -10732,11 +10729,11 @@
     <row r="50" spans="3:34" x14ac:dyDescent="0.3">
       <c r="C50" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D50" s="17" t="str">
         <f ca="1">UPPER(INDEX(Activities[アクティビティ],MATCH($C50,Activities[Id],0)))</f>
-        <v>プロジェクトの開始</v>
+        <v>インタープリタ結合テスト（池田・宮上・藤田）</v>
       </c>
       <c r="E50" s="17" t="e">
         <f t="shared" ref="E50:AH50" ca="1" si="12">IF(ISERROR(F38),E38,NA())</f>
@@ -10862,11 +10859,11 @@
     <row r="51" spans="3:34" x14ac:dyDescent="0.3">
       <c r="C51" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" s="17" t="str">
         <f ca="1">UPPER(INDEX(Activities[アクティビティ],MATCH($C51,Activities[Id],0)))</f>
-        <v>インタープリタ（池田）</v>
+        <v>インタープリタデバッグ（池田）</v>
       </c>
       <c r="E51" s="17" t="e">
         <f t="shared" ref="E51:AH51" ca="1" si="13">IF(ISERROR(F39),E39,NA())</f>
@@ -10990,13 +10987,13 @@
       </c>
     </row>
     <row r="52" spans="3:34" x14ac:dyDescent="0.3">
-      <c r="C52" s="17">
+      <c r="C52" s="17" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="D52" s="17" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D52" s="17" t="e">
         <f ca="1">UPPER(INDEX(Activities[アクティビティ],MATCH($C52,Activities[Id],0)))</f>
-        <v>インタープリタデバッグ（池田・宮上）</v>
+        <v>#N/A</v>
       </c>
       <c r="E52" s="17" t="e">
         <f t="shared" ref="E52:AH52" ca="1" si="14">IF(ISERROR(F40),E40,NA())</f>
@@ -11122,123 +11119,123 @@
     <row r="55" spans="3:34" x14ac:dyDescent="0.3">
       <c r="E55" s="18">
         <f ca="1">E31</f>
-        <v>42657</v>
+        <v>42671</v>
       </c>
       <c r="F55" s="18">
         <f t="shared" ref="F55:AH55" ca="1" si="15">F31</f>
-        <v>42658</v>
+        <v>42672</v>
       </c>
       <c r="G55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42659</v>
+        <v>42673</v>
       </c>
       <c r="H55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42660</v>
+        <v>42674</v>
       </c>
       <c r="I55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42661</v>
+        <v>42675</v>
       </c>
       <c r="J55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42662</v>
+        <v>42676</v>
       </c>
       <c r="K55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42663</v>
+        <v>42677</v>
       </c>
       <c r="L55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42664</v>
+        <v>42678</v>
       </c>
       <c r="M55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42665</v>
+        <v>42679</v>
       </c>
       <c r="N55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42666</v>
+        <v>42680</v>
       </c>
       <c r="O55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42667</v>
+        <v>42681</v>
       </c>
       <c r="P55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42668</v>
+        <v>42682</v>
       </c>
       <c r="Q55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42669</v>
+        <v>42683</v>
       </c>
       <c r="R55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42670</v>
+        <v>42684</v>
       </c>
       <c r="S55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42671</v>
+        <v>42685</v>
       </c>
       <c r="T55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42672</v>
+        <v>42686</v>
       </c>
       <c r="U55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42673</v>
+        <v>42687</v>
       </c>
       <c r="V55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42674</v>
+        <v>42688</v>
       </c>
       <c r="W55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42675</v>
+        <v>42689</v>
       </c>
       <c r="X55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42676</v>
+        <v>42690</v>
       </c>
       <c r="Y55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42677</v>
+        <v>42691</v>
       </c>
       <c r="Z55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42678</v>
+        <v>42692</v>
       </c>
       <c r="AA55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42679</v>
+        <v>42693</v>
       </c>
       <c r="AB55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42680</v>
+        <v>42694</v>
       </c>
       <c r="AC55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42681</v>
+        <v>42695</v>
       </c>
       <c r="AD55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42682</v>
+        <v>42696</v>
       </c>
       <c r="AE55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42683</v>
+        <v>42697</v>
       </c>
       <c r="AF55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42684</v>
+        <v>42698</v>
       </c>
       <c r="AG55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42685</v>
+        <v>42699</v>
       </c>
       <c r="AH55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42686</v>
+        <v>42700</v>
       </c>
     </row>
     <row r="56" spans="3:34" x14ac:dyDescent="0.3">
@@ -11387,61 +11384,61 @@
         <f t="shared" ca="1" si="17"/>
         <v>0.5</v>
       </c>
-      <c r="I58" s="17">
+      <c r="I58" s="17" t="e">
         <f t="shared" ca="1" si="17"/>
-        <v>0.5</v>
-      </c>
-      <c r="J58" s="17">
+        <v>#N/A</v>
+      </c>
+      <c r="J58" s="17" t="e">
         <f t="shared" ca="1" si="17"/>
-        <v>0.5</v>
-      </c>
-      <c r="K58" s="17">
+        <v>#N/A</v>
+      </c>
+      <c r="K58" s="17" t="e">
         <f t="shared" ca="1" si="17"/>
-        <v>0.5</v>
-      </c>
-      <c r="L58" s="17">
+        <v>#N/A</v>
+      </c>
+      <c r="L58" s="17" t="e">
         <f t="shared" ca="1" si="17"/>
-        <v>0.5</v>
-      </c>
-      <c r="M58" s="17">
+        <v>#N/A</v>
+      </c>
+      <c r="M58" s="17" t="e">
         <f t="shared" ca="1" si="17"/>
-        <v>0.5</v>
-      </c>
-      <c r="N58" s="17">
+        <v>#N/A</v>
+      </c>
+      <c r="N58" s="17" t="e">
         <f t="shared" ca="1" si="17"/>
-        <v>0.5</v>
-      </c>
-      <c r="O58" s="17">
+        <v>#N/A</v>
+      </c>
+      <c r="O58" s="17" t="e">
         <f t="shared" ca="1" si="17"/>
-        <v>0.5</v>
-      </c>
-      <c r="P58" s="17">
+        <v>#N/A</v>
+      </c>
+      <c r="P58" s="17" t="e">
         <f t="shared" ca="1" si="17"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q58" s="17">
+        <v>#N/A</v>
+      </c>
+      <c r="Q58" s="17" t="e">
         <f t="shared" ca="1" si="17"/>
-        <v>0.5</v>
-      </c>
-      <c r="R58" s="17">
+        <v>#N/A</v>
+      </c>
+      <c r="R58" s="17" t="e">
         <f t="shared" ca="1" si="17"/>
-        <v>0.5</v>
-      </c>
-      <c r="S58" s="17">
+        <v>#N/A</v>
+      </c>
+      <c r="S58" s="17" t="e">
         <f t="shared" ca="1" si="17"/>
-        <v>0.5</v>
-      </c>
-      <c r="T58" s="17">
+        <v>#N/A</v>
+      </c>
+      <c r="T58" s="17" t="e">
         <f t="shared" ca="1" si="17"/>
-        <v>0.5</v>
-      </c>
-      <c r="U58" s="17">
+        <v>#N/A</v>
+      </c>
+      <c r="U58" s="17" t="e">
         <f t="shared" ca="1" si="17"/>
-        <v>0.5</v>
-      </c>
-      <c r="V58" s="17">
+        <v>#N/A</v>
+      </c>
+      <c r="V58" s="17" t="e">
         <f t="shared" ca="1" si="17"/>
-        <v>0.5</v>
+        <v>#N/A</v>
       </c>
       <c r="W58" s="17" t="e">
         <f t="shared" ca="1" si="17"/>
@@ -11513,61 +11510,61 @@
         <f t="shared" ca="1" si="18"/>
         <v>13</v>
       </c>
-      <c r="I59" s="17">
+      <c r="I59" s="17" t="e">
         <f t="shared" ca="1" si="18"/>
-        <v>13</v>
-      </c>
-      <c r="J59" s="17">
+        <v>#N/A</v>
+      </c>
+      <c r="J59" s="17" t="e">
         <f t="shared" ca="1" si="18"/>
-        <v>13</v>
-      </c>
-      <c r="K59" s="17">
+        <v>#N/A</v>
+      </c>
+      <c r="K59" s="17" t="e">
         <f t="shared" ca="1" si="18"/>
-        <v>13</v>
-      </c>
-      <c r="L59" s="17">
+        <v>#N/A</v>
+      </c>
+      <c r="L59" s="17" t="e">
         <f t="shared" ca="1" si="18"/>
-        <v>13</v>
-      </c>
-      <c r="M59" s="17">
+        <v>#N/A</v>
+      </c>
+      <c r="M59" s="17" t="e">
         <f t="shared" ca="1" si="18"/>
-        <v>13</v>
-      </c>
-      <c r="N59" s="17">
+        <v>#N/A</v>
+      </c>
+      <c r="N59" s="17" t="e">
         <f t="shared" ca="1" si="18"/>
-        <v>13</v>
-      </c>
-      <c r="O59" s="17">
+        <v>#N/A</v>
+      </c>
+      <c r="O59" s="17" t="e">
         <f t="shared" ca="1" si="18"/>
-        <v>13</v>
-      </c>
-      <c r="P59" s="17">
+        <v>#N/A</v>
+      </c>
+      <c r="P59" s="17" t="e">
         <f t="shared" ca="1" si="18"/>
-        <v>13</v>
-      </c>
-      <c r="Q59" s="17">
+        <v>#N/A</v>
+      </c>
+      <c r="Q59" s="17" t="e">
         <f t="shared" ca="1" si="18"/>
-        <v>13</v>
-      </c>
-      <c r="R59" s="17">
+        <v>#N/A</v>
+      </c>
+      <c r="R59" s="17" t="e">
         <f t="shared" ca="1" si="18"/>
-        <v>13</v>
-      </c>
-      <c r="S59" s="17">
+        <v>#N/A</v>
+      </c>
+      <c r="S59" s="17" t="e">
         <f t="shared" ca="1" si="18"/>
-        <v>13</v>
-      </c>
-      <c r="T59" s="17">
+        <v>#N/A</v>
+      </c>
+      <c r="T59" s="17" t="e">
         <f t="shared" ca="1" si="18"/>
-        <v>13</v>
-      </c>
-      <c r="U59" s="17">
+        <v>#N/A</v>
+      </c>
+      <c r="U59" s="17" t="e">
         <f t="shared" ca="1" si="18"/>
-        <v>13</v>
-      </c>
-      <c r="V59" s="17">
+        <v>#N/A</v>
+      </c>
+      <c r="V59" s="17" t="e">
         <f t="shared" ca="1" si="18"/>
-        <v>13</v>
+        <v>#N/A</v>
       </c>
       <c r="W59" s="17" t="e">
         <f t="shared" ca="1" si="18"/>
@@ -11642,61 +11639,61 @@
         <f t="shared" ca="1" si="19"/>
         <v>#N/A</v>
       </c>
-      <c r="I61" s="17" t="e">
+      <c r="I61" s="17">
         <f t="shared" ca="1" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J61" s="17" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="J61" s="17">
         <f t="shared" ca="1" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K61" s="17" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="K61" s="17">
         <f t="shared" ca="1" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L61" s="17" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="L61" s="17">
         <f t="shared" ca="1" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M61" s="17" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="M61" s="17">
         <f t="shared" ca="1" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N61" s="17" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="N61" s="17">
         <f t="shared" ca="1" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O61" s="17" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="O61" s="17">
         <f t="shared" ca="1" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P61" s="17" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="P61" s="17">
         <f t="shared" ca="1" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q61" s="17" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="Q61" s="17">
         <f t="shared" ca="1" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R61" s="17" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="R61" s="17">
         <f t="shared" ca="1" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S61" s="17" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="S61" s="17">
         <f t="shared" ca="1" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T61" s="17" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="T61" s="17">
         <f t="shared" ca="1" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U61" s="17" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="U61" s="17">
         <f t="shared" ca="1" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V61" s="17" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="V61" s="17">
         <f t="shared" ca="1" si="19"/>
-        <v>#N/A</v>
+        <v>0.5</v>
       </c>
       <c r="W61" s="17">
         <f t="shared" ca="1" si="19"/>
@@ -11768,61 +11765,61 @@
         <f t="shared" ca="1" si="20"/>
         <v>#N/A</v>
       </c>
-      <c r="I62" s="17" t="e">
+      <c r="I62" s="17">
         <f t="shared" ca="1" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J62" s="17" t="e">
+        <v>13</v>
+      </c>
+      <c r="J62" s="17">
         <f t="shared" ca="1" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K62" s="17" t="e">
+        <v>13</v>
+      </c>
+      <c r="K62" s="17">
         <f t="shared" ca="1" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L62" s="17" t="e">
+        <v>13</v>
+      </c>
+      <c r="L62" s="17">
         <f t="shared" ca="1" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M62" s="17" t="e">
+        <v>13</v>
+      </c>
+      <c r="M62" s="17">
         <f t="shared" ca="1" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N62" s="17" t="e">
+        <v>13</v>
+      </c>
+      <c r="N62" s="17">
         <f t="shared" ca="1" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O62" s="17" t="e">
+        <v>13</v>
+      </c>
+      <c r="O62" s="17">
         <f t="shared" ca="1" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P62" s="17" t="e">
+        <v>13</v>
+      </c>
+      <c r="P62" s="17">
         <f t="shared" ca="1" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q62" s="17" t="e">
+        <v>13</v>
+      </c>
+      <c r="Q62" s="17">
         <f t="shared" ca="1" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R62" s="17" t="e">
+        <v>13</v>
+      </c>
+      <c r="R62" s="17">
         <f t="shared" ca="1" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S62" s="17" t="e">
+        <v>13</v>
+      </c>
+      <c r="S62" s="17">
         <f t="shared" ca="1" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T62" s="17" t="e">
+        <v>13</v>
+      </c>
+      <c r="T62" s="17">
         <f t="shared" ca="1" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U62" s="17" t="e">
+        <v>13</v>
+      </c>
+      <c r="U62" s="17">
         <f t="shared" ca="1" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V62" s="17" t="e">
+        <v>13</v>
+      </c>
+      <c r="V62" s="17">
         <f t="shared" ca="1" si="20"/>
-        <v>#N/A</v>
+        <v>13</v>
       </c>
       <c r="W62" s="17">
         <f t="shared" ca="1" si="20"/>
@@ -12027,9 +12024,9 @@
         <f t="shared" ca="1" si="21"/>
         <v>#N/A</v>
       </c>
-      <c r="J66" s="17" t="e">
+      <c r="J66" s="17">
         <f t="shared" ca="1" si="21"/>
-        <v>#N/A</v>
+        <v>0.5</v>
       </c>
       <c r="K66" s="17" t="e">
         <f t="shared" ca="1" si="21"/>
@@ -12083,9 +12080,9 @@
         <f t="shared" ca="1" si="21"/>
         <v>#N/A</v>
       </c>
-      <c r="X66" s="17">
+      <c r="X66" s="17" t="e">
         <f t="shared" ca="1" si="21"/>
-        <v>0.5</v>
+        <v>#N/A</v>
       </c>
       <c r="Y66" s="17" t="e">
         <f t="shared" ca="1" si="21"/>
@@ -12498,123 +12495,123 @@
     <row r="72" spans="4:34" x14ac:dyDescent="0.3">
       <c r="E72" s="17" t="str">
         <f ca="1">TEXT(E55,"dd")</f>
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F72" s="17" t="str">
         <f t="shared" ref="F72:AH72" ca="1" si="24">TEXT(F55,"dd")</f>
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="G72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="I72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>18</v>
+        <v>01</v>
       </c>
       <c r="J72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>19</v>
+        <v>02</v>
       </c>
       <c r="K72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>20</v>
+        <v>03</v>
       </c>
       <c r="L72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>21</v>
+        <v>04</v>
       </c>
       <c r="M72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>22</v>
+        <v>05</v>
       </c>
       <c r="N72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>23</v>
+        <v>06</v>
       </c>
       <c r="O72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>24</v>
+        <v>07</v>
       </c>
       <c r="P72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>25</v>
+        <v>08</v>
       </c>
       <c r="Q72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>26</v>
+        <v>09</v>
       </c>
       <c r="R72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="S72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="T72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="U72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="V72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="W72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>01</v>
+        <v>15</v>
       </c>
       <c r="X72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>02</v>
+        <v>16</v>
       </c>
       <c r="Y72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>03</v>
+        <v>17</v>
       </c>
       <c r="Z72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>04</v>
+        <v>18</v>
       </c>
       <c r="AA72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>05</v>
+        <v>19</v>
       </c>
       <c r="AB72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>06</v>
+        <v>20</v>
       </c>
       <c r="AC72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>07</v>
+        <v>21</v>
       </c>
       <c r="AD72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>08</v>
+        <v>22</v>
       </c>
       <c r="AE72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>09</v>
+        <v>23</v>
       </c>
       <c r="AF72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="AG72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="AH72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/doc/進捗管理/プロトタイプ作成予定.xlsx
+++ b/doc/進捗管理/プロトタイプ作成予定.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="0" windowWidth="25200" windowHeight="12576"/>
+    <workbookView xWindow="7920" yWindow="0" windowWidth="25200" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="プロジェクト タイムライン" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>Id</t>
   </si>
@@ -108,55 +108,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>エディタデバッグ（宮上）</t>
-    <rPh sb="9" eb="11">
-      <t>ミヤカミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>インタープリタ結合テスト（池田・宮上・藤田）</t>
-    <rPh sb="7" eb="9">
-      <t>ケツゴウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>イケダ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ミヤカミ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>フジタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エディタ（宮上・藤田）</t>
-    <rPh sb="5" eb="7">
-      <t>ミヤカミ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>フジタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エディタ結合テスト（宮上・宮上・池田）</t>
-    <rPh sb="4" eb="6">
-      <t>ケツゴウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ミヤカミ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ミヤカミ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>イケダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>システムテストとデバッグ（池田・宮上・藤田）</t>
     <rPh sb="13" eb="15">
       <t>イケダ</t>
@@ -187,6 +138,59 @@
     <rPh sb="12" eb="14">
       <t>イケダ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エディタデバッグ（宮上・池田）</t>
+    <rPh sb="9" eb="11">
+      <t>ミヤカミ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イケダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インタープリタ結合テスト（藤田・池田・宮上）</t>
+    <rPh sb="7" eb="9">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イケダ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ミヤカミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エディタ結合テスト（藤田・宮上・池田）</t>
+    <rPh sb="4" eb="6">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ミヤカミ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イケダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エディタ（宮上・藤田・池田）</t>
+    <rPh sb="5" eb="7">
+      <t>ミヤカミ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>フジタ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イケダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2017/2/29</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -642,94 +646,94 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>42671</c:v>
+                  <c:v>42720</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42672</c:v>
+                  <c:v>42721</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42673</c:v>
+                  <c:v>42722</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42674</c:v>
+                  <c:v>42723</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42675</c:v>
+                  <c:v>42724</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42676</c:v>
+                  <c:v>42725</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42677</c:v>
+                  <c:v>42726</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42678</c:v>
+                  <c:v>42727</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42679</c:v>
+                  <c:v>42728</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42680</c:v>
+                  <c:v>42729</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42681</c:v>
+                  <c:v>42730</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42682</c:v>
+                  <c:v>42731</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42683</c:v>
+                  <c:v>42732</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42684</c:v>
+                  <c:v>42733</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42685</c:v>
+                  <c:v>42734</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42686</c:v>
+                  <c:v>42735</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42687</c:v>
+                  <c:v>42736</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>42688</c:v>
+                  <c:v>42737</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>42689</c:v>
+                  <c:v>42738</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42690</c:v>
+                  <c:v>42739</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>42691</c:v>
+                  <c:v>42740</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>42692</c:v>
+                  <c:v>42741</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>42693</c:v>
+                  <c:v>42742</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>42694</c:v>
+                  <c:v>42743</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>42695</c:v>
+                  <c:v>42744</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>42696</c:v>
+                  <c:v>42745</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>42697</c:v>
+                  <c:v>42746</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>42698</c:v>
+                  <c:v>42747</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>42699</c:v>
+                  <c:v>42748</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>42700</c:v>
+                  <c:v>42749</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1032,94 +1036,94 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>42671</c:v>
+                  <c:v>42720</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42672</c:v>
+                  <c:v>42721</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42673</c:v>
+                  <c:v>42722</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42674</c:v>
+                  <c:v>42723</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42675</c:v>
+                  <c:v>42724</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42676</c:v>
+                  <c:v>42725</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42677</c:v>
+                  <c:v>42726</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42678</c:v>
+                  <c:v>42727</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42679</c:v>
+                  <c:v>42728</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42680</c:v>
+                  <c:v>42729</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42681</c:v>
+                  <c:v>42730</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42682</c:v>
+                  <c:v>42731</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42683</c:v>
+                  <c:v>42732</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42684</c:v>
+                  <c:v>42733</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42685</c:v>
+                  <c:v>42734</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42686</c:v>
+                  <c:v>42735</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42687</c:v>
+                  <c:v>42736</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>42688</c:v>
+                  <c:v>42737</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>42689</c:v>
+                  <c:v>42738</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42690</c:v>
+                  <c:v>42739</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>42691</c:v>
+                  <c:v>42740</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>42692</c:v>
+                  <c:v>42741</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>42693</c:v>
+                  <c:v>42742</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>42694</c:v>
+                  <c:v>42743</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>42695</c:v>
+                  <c:v>42744</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>42696</c:v>
+                  <c:v>42745</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>42697</c:v>
+                  <c:v>42746</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>42698</c:v>
+                  <c:v>42747</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>42699</c:v>
+                  <c:v>42748</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>42700</c:v>
+                  <c:v>42749</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1422,94 +1426,94 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>42671</c:v>
+                  <c:v>42720</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42672</c:v>
+                  <c:v>42721</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42673</c:v>
+                  <c:v>42722</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42674</c:v>
+                  <c:v>42723</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42675</c:v>
+                  <c:v>42724</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42676</c:v>
+                  <c:v>42725</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42677</c:v>
+                  <c:v>42726</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42678</c:v>
+                  <c:v>42727</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42679</c:v>
+                  <c:v>42728</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42680</c:v>
+                  <c:v>42729</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42681</c:v>
+                  <c:v>42730</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42682</c:v>
+                  <c:v>42731</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42683</c:v>
+                  <c:v>42732</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42684</c:v>
+                  <c:v>42733</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42685</c:v>
+                  <c:v>42734</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42686</c:v>
+                  <c:v>42735</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42687</c:v>
+                  <c:v>42736</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>42688</c:v>
+                  <c:v>42737</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>42689</c:v>
+                  <c:v>42738</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42690</c:v>
+                  <c:v>42739</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>42691</c:v>
+                  <c:v>42740</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>42692</c:v>
+                  <c:v>42741</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>42693</c:v>
+                  <c:v>42742</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>42694</c:v>
+                  <c:v>42743</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>42695</c:v>
+                  <c:v>42744</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>42696</c:v>
+                  <c:v>42745</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>42697</c:v>
+                  <c:v>42746</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>42698</c:v>
+                  <c:v>42747</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>42699</c:v>
+                  <c:v>42748</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>42700</c:v>
+                  <c:v>42749</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1815,94 +1819,94 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>42671</c:v>
+                  <c:v>42720</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42672</c:v>
+                  <c:v>42721</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42673</c:v>
+                  <c:v>42722</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42674</c:v>
+                  <c:v>42723</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42675</c:v>
+                  <c:v>42724</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42676</c:v>
+                  <c:v>42725</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42677</c:v>
+                  <c:v>42726</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42678</c:v>
+                  <c:v>42727</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42679</c:v>
+                  <c:v>42728</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42680</c:v>
+                  <c:v>42729</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42681</c:v>
+                  <c:v>42730</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42682</c:v>
+                  <c:v>42731</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42683</c:v>
+                  <c:v>42732</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42684</c:v>
+                  <c:v>42733</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42685</c:v>
+                  <c:v>42734</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42686</c:v>
+                  <c:v>42735</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42687</c:v>
+                  <c:v>42736</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>42688</c:v>
+                  <c:v>42737</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>42689</c:v>
+                  <c:v>42738</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42690</c:v>
+                  <c:v>42739</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>42691</c:v>
+                  <c:v>42740</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>42692</c:v>
+                  <c:v>42741</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>42693</c:v>
+                  <c:v>42742</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>42694</c:v>
+                  <c:v>42743</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>42695</c:v>
+                  <c:v>42744</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>42696</c:v>
+                  <c:v>42745</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>42697</c:v>
+                  <c:v>42746</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>42698</c:v>
+                  <c:v>42747</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>42699</c:v>
+                  <c:v>42748</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>42700</c:v>
+                  <c:v>42749</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2205,94 +2209,94 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>42671</c:v>
+                  <c:v>42720</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42672</c:v>
+                  <c:v>42721</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42673</c:v>
+                  <c:v>42722</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42674</c:v>
+                  <c:v>42723</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42675</c:v>
+                  <c:v>42724</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42676</c:v>
+                  <c:v>42725</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42677</c:v>
+                  <c:v>42726</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42678</c:v>
+                  <c:v>42727</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42679</c:v>
+                  <c:v>42728</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42680</c:v>
+                  <c:v>42729</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42681</c:v>
+                  <c:v>42730</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42682</c:v>
+                  <c:v>42731</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42683</c:v>
+                  <c:v>42732</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42684</c:v>
+                  <c:v>42733</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42685</c:v>
+                  <c:v>42734</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42686</c:v>
+                  <c:v>42735</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42687</c:v>
+                  <c:v>42736</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>42688</c:v>
+                  <c:v>42737</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>42689</c:v>
+                  <c:v>42738</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42690</c:v>
+                  <c:v>42739</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>42691</c:v>
+                  <c:v>42740</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>42692</c:v>
+                  <c:v>42741</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>42693</c:v>
+                  <c:v>42742</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>42694</c:v>
+                  <c:v>42743</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>42695</c:v>
+                  <c:v>42744</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>42696</c:v>
+                  <c:v>42745</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>42697</c:v>
+                  <c:v>42746</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>42698</c:v>
+                  <c:v>42747</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>42699</c:v>
+                  <c:v>42748</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>42700</c:v>
+                  <c:v>42749</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2407,7 +2411,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>プロジェクトの開始</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2714,7 +2718,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>インタープリタ（池田）</c:v>
+                  <c:v>プロジェクトの開始</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3021,7 +3025,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>インタープリタ結合テスト（池田・宮上・藤田）</c:v>
+                  <c:v>インタープリタ結合テスト（藤田・池田・宮上）</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3931,7 +3935,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2016年10月</c:v>
+                  <c:v>2016年12月</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3965,40 +3969,40 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>#N/A</c:v>
@@ -4056,7 +4060,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2016年11月</c:v>
+                  <c:v>2017年1月</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4090,40 +4094,40 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.5</c:v>
@@ -4181,7 +4185,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2016年11月</c:v>
+                  <c:v>2017年1月</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4251,43 +4255,43 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>#N/A</c:v>
@@ -4339,7 +4343,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2016年10月</c:v>
+                  <c:v>2016年12月</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4529,6 +4533,486 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
+                      <c:v>16</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{B4190964-9926-4B80-9218-5AAE226870C6}</c15:txfldGUID>
+                      <c15:f>計算!$E$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>16</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>計算!$F$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>17</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{BA035CAC-9358-4E3B-8BCB-0AE40236AD34}</c15:txfldGUID>
+                      <c15:f>計算!$F$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>17</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>計算!$G$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>18</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{24FA62D9-2DED-4DCF-ABB1-6FD0F13FE7DE}</c15:txfldGUID>
+                      <c15:f>計算!$G$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>18</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>計算!$H$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>19</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{11EF1865-45B7-4C68-BBCC-120353BA18D8}</c15:txfldGUID>
+                      <c15:f>計算!$H$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>19</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>計算!$I$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>20</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{AB7223C2-635B-4580-86A9-9A0D9F655979}</c15:txfldGUID>
+                      <c15:f>計算!$I$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>20</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>計算!$J$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>21</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{55D63202-454E-479C-BD3C-66ED3518F82C}</c15:txfldGUID>
+                      <c15:f>計算!$J$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>21</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>計算!$K$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>22</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{F7D26A74-C173-435A-935B-FC6F4B40756C}</c15:txfldGUID>
+                      <c15:f>計算!$K$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>22</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>計算!$L$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>23</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{BAB1AA28-D928-42B3-8F7D-567CAA780AB6}</c15:txfldGUID>
+                      <c15:f>計算!$L$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>23</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>計算!$M$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>24</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{884F470C-C0DA-4EF4-9427-44AAD0686ACF}</c15:txfldGUID>
+                      <c15:f>計算!$M$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>24</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>計算!$N$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>25</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{D32E1639-FC69-47BC-B3C2-D6675AB76C4A}</c15:txfldGUID>
+                      <c15:f>計算!$N$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>25</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>計算!$O$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>26</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{42AA0B7C-7396-44DF-ACAE-5F1E942A67FC}</c15:txfldGUID>
+                      <c15:f>計算!$O$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>26</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>計算!$P$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>27</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{7DDD54A5-D8A0-417A-8779-32A2124952E7}</c15:txfldGUID>
+                      <c15:f>計算!$P$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>27</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>計算!$Q$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
                       <c:v>28</c:v>
                     </c:pt>
                   </c:strCache>
@@ -4546,8 +5030,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{AF4057B4-70A2-4D38-9B8B-173A04577F8E}</c15:txfldGUID>
-                      <c15:f>計算!$E$72</c15:f>
+                      <c15:txfldGUID>{6C57C67B-BF23-4C27-97B8-360FA54BCC38}</c15:txfldGUID>
+                      <c15:f>計算!$Q$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4561,11 +5045,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="1"/>
+              <c:idx val="13"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>計算!$F$72</c:f>
+                  <c:f>計算!$R$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4586,8 +5070,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{EDA4A186-A5E5-44CF-BD95-002C139A6999}</c15:txfldGUID>
-                      <c15:f>計算!$F$72</c15:f>
+                      <c15:txfldGUID>{8E7B61D4-CDEE-4988-9057-BAA38DFC0790}</c15:txfldGUID>
+                      <c15:f>計算!$R$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4601,11 +5085,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="2"/>
+              <c:idx val="14"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>計算!$G$72</c:f>
+                  <c:f>計算!$S$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4626,8 +5110,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{89C373C6-3433-411F-84C6-B8E42DCA2073}</c15:txfldGUID>
-                      <c15:f>計算!$G$72</c15:f>
+                      <c15:txfldGUID>{DCB017AC-74E7-4E07-872C-95A4BA69293C}</c15:txfldGUID>
+                      <c15:f>計算!$S$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4641,11 +5125,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="3"/>
+              <c:idx val="15"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>計算!$H$72</c:f>
+                  <c:f>計算!$T$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4666,8 +5150,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{B35FEA2A-6D00-44F9-ACEE-21EDDC77A981}</c15:txfldGUID>
-                      <c15:f>計算!$H$72</c15:f>
+                      <c15:txfldGUID>{325639EF-D729-4D8B-BD5F-2625437861A0}</c15:txfldGUID>
+                      <c15:f>計算!$T$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4681,11 +5165,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="4"/>
+              <c:idx val="16"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>計算!$I$72</c:f>
+                  <c:f>計算!$U$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4706,8 +5190,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{7DFA0045-802D-4D14-AE79-D5164EFC507B}</c15:txfldGUID>
-                      <c15:f>計算!$I$72</c15:f>
+                      <c15:txfldGUID>{6B7EDAD5-12CE-45F4-A7FA-D4B6FF68FCCE}</c15:txfldGUID>
+                      <c15:f>計算!$U$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4721,11 +5205,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="5"/>
+              <c:idx val="17"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>計算!$J$72</c:f>
+                  <c:f>計算!$V$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4746,8 +5230,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{FC65AAD7-EC3F-423C-9268-62F86A384218}</c15:txfldGUID>
-                      <c15:f>計算!$J$72</c15:f>
+                      <c15:txfldGUID>{A838667C-F808-4DCB-AF9D-B1C15D384D93}</c15:txfldGUID>
+                      <c15:f>計算!$V$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4761,11 +5245,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="6"/>
+              <c:idx val="18"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>計算!$K$72</c:f>
+                  <c:f>計算!$W$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4786,8 +5270,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{2DD84483-F34C-46F4-8552-D69814B65F37}</c15:txfldGUID>
-                      <c15:f>計算!$K$72</c15:f>
+                      <c15:txfldGUID>{CA3CDA2C-0DA4-482F-BE3D-C38DAD55F0AC}</c15:txfldGUID>
+                      <c15:f>計算!$W$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4801,11 +5285,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="7"/>
+              <c:idx val="19"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>計算!$L$72</c:f>
+                  <c:f>計算!$X$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4826,8 +5310,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{2DF6C2F2-2B23-4F5F-8A53-308BC5C0837C}</c15:txfldGUID>
-                      <c15:f>計算!$L$72</c15:f>
+                      <c15:txfldGUID>{F0C5DE4E-53E8-4ACF-AA4F-0E672D1CC3E6}</c15:txfldGUID>
+                      <c15:f>計算!$X$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4841,11 +5325,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="8"/>
+              <c:idx val="20"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>計算!$M$72</c:f>
+                  <c:f>計算!$Y$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4866,8 +5350,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{5CE9B74C-16E3-4760-AC98-E5071A252498}</c15:txfldGUID>
-                      <c15:f>計算!$M$72</c15:f>
+                      <c15:txfldGUID>{B541555B-E0A4-4B59-A2E6-383AF11B00C7}</c15:txfldGUID>
+                      <c15:f>計算!$Y$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4881,11 +5365,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="9"/>
+              <c:idx val="21"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>計算!$N$72</c:f>
+                  <c:f>計算!$Z$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4906,8 +5390,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{17ED1AD8-B4B0-4428-9917-112F3A7F8FBF}</c15:txfldGUID>
-                      <c15:f>計算!$N$72</c15:f>
+                      <c15:txfldGUID>{EEDA9A2A-E96C-4C01-8081-F5277EA41003}</c15:txfldGUID>
+                      <c15:f>計算!$Z$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4921,11 +5405,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="10"/>
+              <c:idx val="22"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>計算!$O$72</c:f>
+                  <c:f>計算!$AA$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4946,8 +5430,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{40295754-EE65-485C-897E-EBA274776B5A}</c15:txfldGUID>
-                      <c15:f>計算!$O$72</c15:f>
+                      <c15:txfldGUID>{58AECF01-4156-4500-8B61-73D6E7D7B089}</c15:txfldGUID>
+                      <c15:f>計算!$AA$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4961,11 +5445,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="11"/>
+              <c:idx val="23"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>計算!$P$72</c:f>
+                  <c:f>計算!$AB$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4986,8 +5470,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{888DCB42-1DF4-42F3-81AE-017B7E4D9CF6}</c15:txfldGUID>
-                      <c15:f>計算!$P$72</c15:f>
+                      <c15:txfldGUID>{4F033498-76C1-4E1C-B058-24E92ECC5541}</c15:txfldGUID>
+                      <c15:f>計算!$AB$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5001,11 +5485,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="12"/>
+              <c:idx val="24"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>計算!$Q$72</c:f>
+                  <c:f>計算!$AC$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5026,8 +5510,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{471F1BE9-4D6F-4EBB-BE72-34565A714FC2}</c15:txfldGUID>
-                      <c15:f>計算!$Q$72</c15:f>
+                      <c15:txfldGUID>{22BE78AB-76C5-46A3-A618-74942DB34F86}</c15:txfldGUID>
+                      <c15:f>計算!$AC$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5041,11 +5525,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="13"/>
+              <c:idx val="25"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>計算!$R$72</c:f>
+                  <c:f>計算!$AD$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5066,8 +5550,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{6B7E5F4D-B01C-4A5F-854C-BA634D4DFD3F}</c15:txfldGUID>
-                      <c15:f>計算!$R$72</c15:f>
+                      <c15:txfldGUID>{DF244068-5B78-4FDB-853D-D3B9BF4E5A48}</c15:txfldGUID>
+                      <c15:f>計算!$AD$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5081,11 +5565,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="14"/>
+              <c:idx val="26"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>計算!$S$72</c:f>
+                  <c:f>計算!$AE$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5106,8 +5590,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{551FE22A-9C0A-4EF3-9E74-85CAD953D575}</c15:txfldGUID>
-                      <c15:f>計算!$S$72</c15:f>
+                      <c15:txfldGUID>{E5721371-84E3-4513-906F-4348709FA7C7}</c15:txfldGUID>
+                      <c15:f>計算!$AE$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5121,11 +5605,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="15"/>
+              <c:idx val="27"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>計算!$T$72</c:f>
+                  <c:f>計算!$AF$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5146,8 +5630,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{DE40FF16-749B-4BD3-BF83-CF4613872A4B}</c15:txfldGUID>
-                      <c15:f>計算!$T$72</c15:f>
+                      <c15:txfldGUID>{5D8BC6C8-19D2-4553-821B-DAF7FB3EC3A7}</c15:txfldGUID>
+                      <c15:f>計算!$AF$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5161,11 +5645,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="16"/>
+              <c:idx val="28"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>計算!$U$72</c:f>
+                  <c:f>計算!$AG$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5186,8 +5670,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{B0093E50-8A5F-4FFF-9D0A-E65367A4E42F}</c15:txfldGUID>
-                      <c15:f>計算!$U$72</c15:f>
+                      <c15:txfldGUID>{FF3A5126-D30E-4CDF-8917-8992A0A47650}</c15:txfldGUID>
+                      <c15:f>計算!$AG$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5201,11 +5685,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="17"/>
+              <c:idx val="29"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>計算!$V$72</c:f>
+                  <c:f>計算!$AH$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5226,492 +5710,12 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{66DB2F67-26AA-488A-B70F-76DA5B8FC969}</c15:txfldGUID>
-                      <c15:f>計算!$V$72</c15:f>
+                      <c15:txfldGUID>{4C24587D-CD2C-4759-AC7A-F425D4E2C623}</c15:txfldGUID>
+                      <c15:f>計算!$AH$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
                           <c:v>14</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="18"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>計算!$W$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>15</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{7AA9BCA2-D3B4-43E5-A46C-BC28F2073049}</c15:txfldGUID>
-                      <c15:f>計算!$W$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>15</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="19"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>計算!$X$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>16</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A1739D9C-0F98-4458-8258-E7DBE2BD94AA}</c15:txfldGUID>
-                      <c15:f>計算!$X$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>16</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="20"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>計算!$Y$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>17</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{1B5F53BB-8F27-4823-943A-A5D7986A2FF5}</c15:txfldGUID>
-                      <c15:f>計算!$Y$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>17</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="21"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>計算!$Z$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>18</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{7A80D4ED-AAFE-47B0-B189-50223A3BF570}</c15:txfldGUID>
-                      <c15:f>計算!$Z$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>18</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="22"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>計算!$AA$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>19</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{94B3E653-669C-4517-89B9-B7AD6F2025F2}</c15:txfldGUID>
-                      <c15:f>計算!$AA$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>19</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="23"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>計算!$AB$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>20</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{595F1A46-733A-4BBB-9C87-79F5B5E672C5}</c15:txfldGUID>
-                      <c15:f>計算!$AB$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>20</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="24"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>計算!$AC$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>21</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{C48FDB2F-3ABC-4EC3-8652-F2F60B6A96C2}</c15:txfldGUID>
-                      <c15:f>計算!$AC$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>21</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="25"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>計算!$AD$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>22</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{2A1BD500-8AFD-4738-AF4F-30099543FE2C}</c15:txfldGUID>
-                      <c15:f>計算!$AD$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>22</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="26"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>計算!$AE$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>23</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{63D7E5B4-0D16-44BD-9BA0-EAFEAE91DBE0}</c15:txfldGUID>
-                      <c15:f>計算!$AE$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>23</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="27"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>計算!$AF$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>24</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{E0B25F2A-B155-4A09-B0A9-197A3C1F026F}</c15:txfldGUID>
-                      <c15:f>計算!$AF$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>24</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="28"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>計算!$AG$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>25</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{9DFA4D21-1E08-4786-88BF-CE3718696EA6}</c15:txfldGUID>
-                      <c15:f>計算!$AG$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>25</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="29"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>計算!$AH$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>26</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{672D34D1-A72B-47D2-B10E-0020F49F35FC}</c15:txfldGUID>
-                      <c15:f>計算!$AH$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>26</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -5897,7 +5901,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{1DBF2E4C-559B-4E6D-9A9D-302115372282}</c15:txfldGUID>
+                      <c15:txfldGUID>{1D27516F-C179-4EBA-BDA0-49CB816504E4}</c15:txfldGUID>
                       <c15:f>計算!$E$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5937,7 +5941,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{61328B6F-6E3C-4B56-AED0-829C35A2E998}</c15:txfldGUID>
+                      <c15:txfldGUID>{600EDECB-CA6B-4ABA-B2B6-CAC7353C619E}</c15:txfldGUID>
                       <c15:f>計算!$F$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5977,7 +5981,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{AC15B778-E1CF-4BAE-B3D4-84A2DEA40C69}</c15:txfldGUID>
+                      <c15:txfldGUID>{89CE722E-C4B5-4C36-8903-425350723E09}</c15:txfldGUID>
                       <c15:f>計算!$G$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6017,7 +6021,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{FB12B8E8-E0FF-4FC8-878A-F8E5AD802451}</c15:txfldGUID>
+                      <c15:txfldGUID>{BCF8E95B-1B43-4994-B05F-E409C99E578F}</c15:txfldGUID>
                       <c15:f>計算!$H$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6057,7 +6061,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{97459B70-3182-4EFA-98F2-7FCCC65136E7}</c15:txfldGUID>
+                      <c15:txfldGUID>{40E788D3-3B73-45E5-AF25-0E3821178F9E}</c15:txfldGUID>
                       <c15:f>計算!$I$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6097,7 +6101,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{15C15FAD-BD1A-4FB1-98B3-FCAB3F9B48D0}</c15:txfldGUID>
+                      <c15:txfldGUID>{517DDA9B-30CF-4C66-A4B7-CD8776756A93}</c15:txfldGUID>
                       <c15:f>計算!$J$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6137,7 +6141,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{57E71963-5AB8-4119-9FB9-55DF9C904180}</c15:txfldGUID>
+                      <c15:txfldGUID>{03456539-D153-4031-8243-A48653449071}</c15:txfldGUID>
                       <c15:f>計算!$K$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6177,7 +6181,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{076B982C-1844-41E2-8081-81941D141DD4}</c15:txfldGUID>
+                      <c15:txfldGUID>{18A103CE-5306-45CC-91C8-A6484676704D}</c15:txfldGUID>
                       <c15:f>計算!$L$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6217,7 +6221,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{94C98DBE-B157-424A-A240-EC3CFA0392FF}</c15:txfldGUID>
+                      <c15:txfldGUID>{B79DD015-3041-4D78-84FA-260DCCD50745}</c15:txfldGUID>
                       <c15:f>計算!$M$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6257,7 +6261,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{9B104B45-5A90-49AC-A6AC-C137B376F77B}</c15:txfldGUID>
+                      <c15:txfldGUID>{06F9D4A4-8A8A-4E79-8F1D-CF040595CBBC}</c15:txfldGUID>
                       <c15:f>計算!$N$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6297,7 +6301,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{645540C7-935C-42A6-A9BA-C8859EF51B24}</c15:txfldGUID>
+                      <c15:txfldGUID>{7D2CC0B4-91A6-4F82-BC71-8775956AE42E}</c15:txfldGUID>
                       <c15:f>計算!$O$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6337,7 +6341,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{68DD44C9-2C61-4F9F-A4C7-3AAFCC24C7F5}</c15:txfldGUID>
+                      <c15:txfldGUID>{B4CA00C2-CF03-4771-937F-67F8FE0E4FD9}</c15:txfldGUID>
                       <c15:f>計算!$P$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6377,7 +6381,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{12CB7B25-70D3-4CE0-BC16-C408D82C562B}</c15:txfldGUID>
+                      <c15:txfldGUID>{AA0A713E-1F38-4399-A3FB-9CC666C8117A}</c15:txfldGUID>
                       <c15:f>計算!$Q$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6417,7 +6421,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{CB1DD25C-6677-41DF-959D-C5EB1E374C18}</c15:txfldGUID>
+                      <c15:txfldGUID>{39E53724-E118-4F69-A1E6-B967AD61D122}</c15:txfldGUID>
                       <c15:f>計算!$R$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6457,7 +6461,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{D5352F8F-2B72-49E6-9AF1-69AEDD8F187E}</c15:txfldGUID>
+                      <c15:txfldGUID>{258CF69E-4B27-42C9-9AF0-4DC8D276190E}</c15:txfldGUID>
                       <c15:f>計算!$S$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6497,7 +6501,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{086D8A06-1202-4318-9F70-327F3D00508A}</c15:txfldGUID>
+                      <c15:txfldGUID>{821825C7-B14E-49BA-A0A1-1BBB6E04D34D}</c15:txfldGUID>
                       <c15:f>計算!$T$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6537,7 +6541,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{47201345-862F-47BB-82B9-531D4B455AF2}</c15:txfldGUID>
+                      <c15:txfldGUID>{6144E8EB-259B-40C2-82F3-8E418FE0897F}</c15:txfldGUID>
                       <c15:f>計算!$U$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6577,7 +6581,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{4696960F-510D-4C8E-A63A-652F8B9DCE44}</c15:txfldGUID>
+                      <c15:txfldGUID>{5F8DB174-BF86-40A2-987E-C9A7020CEB34}</c15:txfldGUID>
                       <c15:f>計算!$V$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6617,7 +6621,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{C6D58947-4B7C-493E-B617-E4E0E3EB76A5}</c15:txfldGUID>
+                      <c15:txfldGUID>{0DFDEA5D-64FE-4D74-A413-C1199CFA2C05}</c15:txfldGUID>
                       <c15:f>計算!$W$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6657,7 +6661,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{B03E2D7B-E0F6-4845-B2F6-6B9EA2446ACC}</c15:txfldGUID>
+                      <c15:txfldGUID>{6C5C868E-56B7-400F-A99E-3E879B317AA2}</c15:txfldGUID>
                       <c15:f>計算!$X$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6697,7 +6701,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A64D268B-2F2B-4FF7-9163-19E4F6694ABD}</c15:txfldGUID>
+                      <c15:txfldGUID>{6822F742-4C52-4003-B202-A4E85E1AF2EA}</c15:txfldGUID>
                       <c15:f>計算!$Y$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6737,7 +6741,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{9A2E81CC-7FFC-41B3-99E7-872CA86411A0}</c15:txfldGUID>
+                      <c15:txfldGUID>{6755A9E2-F6DC-4E87-A55F-AD7954CBD023}</c15:txfldGUID>
                       <c15:f>計算!$Z$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6777,7 +6781,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{7FCB79B4-8DD5-414E-988A-AD6782E0578A}</c15:txfldGUID>
+                      <c15:txfldGUID>{56040A1A-5D69-471A-BA45-82428AE05A5B}</c15:txfldGUID>
                       <c15:f>計算!$AA$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6817,7 +6821,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{2F583C50-9AB8-4DA2-9C8F-7EDED7AFF407}</c15:txfldGUID>
+                      <c15:txfldGUID>{1604FB7E-9AA3-4D46-9953-1C044CDECDCF}</c15:txfldGUID>
                       <c15:f>計算!$AB$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6857,7 +6861,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{F7F8F635-57A4-4E6F-A067-CE32DC48857B}</c15:txfldGUID>
+                      <c15:txfldGUID>{553C56F6-8A6F-4507-B356-251F4C9CAE6D}</c15:txfldGUID>
                       <c15:f>計算!$AC$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6897,7 +6901,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{CB37ACE1-E128-42EB-8462-8CC3D4F0CBBB}</c15:txfldGUID>
+                      <c15:txfldGUID>{72121218-CA9A-44B6-AF20-A6DE161DF6D6}</c15:txfldGUID>
                       <c15:f>計算!$AD$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6937,7 +6941,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{026D22A4-D24B-4F07-BD37-39439C9B7964}</c15:txfldGUID>
+                      <c15:txfldGUID>{913A6072-E77F-4E39-A146-733D65F158EA}</c15:txfldGUID>
                       <c15:f>計算!$AE$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6977,7 +6981,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{985767C6-BF48-4DEA-85F2-C559A5CA4758}</c15:txfldGUID>
+                      <c15:txfldGUID>{FFF170B5-1B55-4AFF-9DB5-F76F9CDDAEB8}</c15:txfldGUID>
                       <c15:f>計算!$AF$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7017,7 +7021,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{9300DCB1-84E9-4584-AB4F-79CA59DE3FB8}</c15:txfldGUID>
+                      <c15:txfldGUID>{1B9C681F-9884-48F6-8C13-EEA3C420329E}</c15:txfldGUID>
                       <c15:f>計算!$AG$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7057,7 +7061,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{74E59A3A-8ECD-4CC8-AA91-15F946AEABD4}</c15:txfldGUID>
+                      <c15:txfldGUID>{DAA26528-D930-4D5E-8CAD-6D29A350ADAC}</c15:txfldGUID>
                       <c15:f>計算!$AH$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7215,7 +7219,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2016年 10月  - Top Band</c:v>
+                  <c:v>2016年 12月  - Top Band</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7249,40 +7253,40 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>#N/A</c:v>
@@ -7340,7 +7344,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2016年 11月 - Top Band</c:v>
+                  <c:v>2017年 1月 - Top Band</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7374,40 +7378,40 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>13</c:v>
@@ -7466,11 +7470,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="190715432"/>
-        <c:axId val="190704064"/>
+        <c:axId val="87921856"/>
+        <c:axId val="87921072"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="190715432"/>
+        <c:axId val="87921856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7493,14 +7497,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190704064"/>
+        <c:crossAx val="87921072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="190704064"/>
+        <c:axId val="87921072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.5"/>
@@ -7512,7 +7516,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190715432"/>
+        <c:crossAx val="87921856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -7893,7 +7897,7 @@
   </sheetPr>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -7940,7 +7944,7 @@
       </c>
       <c r="D20" s="11">
         <f ca="1">TODAY()-3</f>
-        <v>42671</v>
+        <v>42720</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
@@ -7978,7 +7982,7 @@
       </c>
       <c r="D23" s="15">
         <f ca="1">D20+3</f>
-        <v>42674</v>
+        <v>42723</v>
       </c>
       <c r="E23" s="15"/>
       <c r="F23" s="14"/>
@@ -8023,14 +8027,13 @@
         <v>4</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D26" s="15">
         <v>42688</v>
       </c>
       <c r="E26" s="15">
-        <f>Activities[[#This Row],[開始]]+15</f>
-        <v>42703</v>
+        <v>42745</v>
       </c>
       <c r="F26" s="14"/>
     </row>
@@ -8040,15 +8043,14 @@
         <v>5</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D27" s="15">
         <f>D26</f>
         <v>42688</v>
       </c>
       <c r="E27" s="15">
-        <f>Activities[[#This Row],[開始]]+15</f>
-        <v>42703</v>
+        <v>42745</v>
       </c>
       <c r="F27" s="14"/>
     </row>
@@ -8058,14 +8060,14 @@
         <v>5</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D28" s="15">
         <f>E24+1</f>
         <v>42614</v>
       </c>
       <c r="E28" s="15">
-        <v>42704</v>
+        <v>42767</v>
       </c>
       <c r="F28" s="14"/>
     </row>
@@ -8075,14 +8077,14 @@
         <v>6</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D29" s="15">
         <f>E28+1</f>
-        <v>42705</v>
+        <v>42768</v>
       </c>
       <c r="E29" s="15">
-        <v>42720</v>
+        <v>42781</v>
       </c>
       <c r="F29" s="14"/>
     </row>
@@ -8092,15 +8094,15 @@
         <v>7</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D30" s="15">
         <f>D29</f>
-        <v>42705</v>
+        <v>42768</v>
       </c>
       <c r="E30" s="15">
         <f>E29</f>
-        <v>42720</v>
+        <v>42781</v>
       </c>
       <c r="F30" s="14"/>
     </row>
@@ -8110,18 +8112,18 @@
         <v>8</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D31" s="15">
         <f>E30+1</f>
-        <v>42721</v>
-      </c>
-      <c r="E31" s="15">
+        <v>42782</v>
+      </c>
+      <c r="E31" s="15" t="str">
         <f>D32</f>
-        <v>42735</v>
+        <v>2017/2/29</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8132,8 +8134,8 @@
       <c r="C32" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="15">
-        <v>42735</v>
+      <c r="D32" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="14"/>
@@ -8212,7 +8214,7 @@
       </c>
       <c r="D3" s="18">
         <f ca="1">TODAY()</f>
-        <v>42674</v>
+        <v>42723</v>
       </c>
       <c r="E3" s="18"/>
     </row>
@@ -8245,7 +8247,7 @@
       </c>
       <c r="D9" s="17">
         <f ca="1">SUMPRODUCT( ((Activities[開始]&gt;=StartDateWindow)+(Activities[終了]&gt;=StartDateWindow)&gt;0)*(Activities[開始]&lt;=(StartDateWindow+WindowDays-1)) )</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E9" s="17" t="e">
         <f>NA()</f>
@@ -8264,7 +8266,7 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D11" s="17">
         <f ca="1">D10-MIN(D10,D9)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E11" s="17" t="e">
         <f>NA()</f>
@@ -8306,7 +8308,7 @@
       <c r="C16" s="19"/>
       <c r="E16" s="17">
         <f t="array" aca="1" ref="E16" ca="1">INDEX(Activities[Id],MATCH(1, (Activities[Id]&gt;E15)*((Activities[開始]&gt;=StartDateWindow)+(Activities[終了]&gt;=StartDateWindow)&gt;0)*(Activities[開始]&lt;=(StartDateWindow+WindowDays-1)), 0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F16" s="17" t="e">
         <f t="shared" ca="1" si="0"/>
@@ -8317,7 +8319,7 @@
       <c r="C17" s="19"/>
       <c r="E17" s="17">
         <f t="array" aca="1" ref="E17" ca="1">INDEX(Activities[Id],MATCH(1, (Activities[Id]&gt;E16)*((Activities[開始]&gt;=StartDateWindow)+(Activities[終了]&gt;=StartDateWindow)&gt;0)*(Activities[開始]&lt;=(StartDateWindow+WindowDays-1)), 0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F17" s="17" t="e">
         <f t="shared" ca="1" si="0"/>
@@ -8325,9 +8327,9 @@
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="E18" s="17">
+      <c r="E18" s="17" t="e">
         <f t="array" aca="1" ref="E18" ca="1">INDEX(Activities[Id],MATCH(1, (Activities[Id]&gt;E17)*((Activities[開始]&gt;=StartDateWindow)+(Activities[終了]&gt;=StartDateWindow)&gt;0)*(Activities[開始]&lt;=(StartDateWindow+WindowDays-1)), 0))</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="F18" s="17" t="e">
         <f t="shared" ca="1" si="0"/>
@@ -8339,9 +8341,9 @@
         <f t="array" aca="1" ref="E19" ca="1">INDEX(Activities[Id],MATCH(1, (Activities[Id]&gt;E18)*((Activities[開始]&gt;=StartDateWindow)+(Activities[終了]&gt;=StartDateWindow)&gt;0)*(Activities[開始]&lt;=(StartDateWindow+WindowDays-1)), 0))</f>
         <v>#N/A</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="17" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.3">
@@ -8351,7 +8353,7 @@
       </c>
       <c r="F20" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.3">
@@ -8390,7 +8392,7 @@
       </c>
       <c r="D25" s="18">
         <f ca="1">StartDate+WindowOffset</f>
-        <v>42671</v>
+        <v>42720</v>
       </c>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.3">
@@ -8407,7 +8409,7 @@
       </c>
       <c r="D28" s="19">
         <f ca="1">'プロジェクト タイムライン'!D20</f>
-        <v>42671</v>
+        <v>42720</v>
       </c>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.3">
@@ -8433,127 +8435,127 @@
       </c>
       <c r="E31" s="18">
         <f ca="1">StartDateWindow</f>
-        <v>42671</v>
+        <v>42720</v>
       </c>
       <c r="F31" s="18">
         <f t="shared" ref="F31:AI31" ca="1" si="1">E31+1</f>
-        <v>42672</v>
+        <v>42721</v>
       </c>
       <c r="G31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42673</v>
+        <v>42722</v>
       </c>
       <c r="H31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42674</v>
+        <v>42723</v>
       </c>
       <c r="I31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42675</v>
+        <v>42724</v>
       </c>
       <c r="J31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42676</v>
+        <v>42725</v>
       </c>
       <c r="K31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42677</v>
+        <v>42726</v>
       </c>
       <c r="L31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42678</v>
+        <v>42727</v>
       </c>
       <c r="M31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42679</v>
+        <v>42728</v>
       </c>
       <c r="N31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42680</v>
+        <v>42729</v>
       </c>
       <c r="O31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42681</v>
+        <v>42730</v>
       </c>
       <c r="P31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42682</v>
+        <v>42731</v>
       </c>
       <c r="Q31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42683</v>
+        <v>42732</v>
       </c>
       <c r="R31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42684</v>
+        <v>42733</v>
       </c>
       <c r="S31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42685</v>
+        <v>42734</v>
       </c>
       <c r="T31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42686</v>
+        <v>42735</v>
       </c>
       <c r="U31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42687</v>
+        <v>42736</v>
       </c>
       <c r="V31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42688</v>
+        <v>42737</v>
       </c>
       <c r="W31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42689</v>
+        <v>42738</v>
       </c>
       <c r="X31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42690</v>
+        <v>42739</v>
       </c>
       <c r="Y31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42691</v>
+        <v>42740</v>
       </c>
       <c r="Z31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42692</v>
+        <v>42741</v>
       </c>
       <c r="AA31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42693</v>
+        <v>42742</v>
       </c>
       <c r="AB31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42694</v>
+        <v>42743</v>
       </c>
       <c r="AC31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42695</v>
+        <v>42744</v>
       </c>
       <c r="AD31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42696</v>
+        <v>42745</v>
       </c>
       <c r="AE31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42697</v>
+        <v>42746</v>
       </c>
       <c r="AF31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42698</v>
+        <v>42747</v>
       </c>
       <c r="AG31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42699</v>
+        <v>42748</v>
       </c>
       <c r="AH31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42700</v>
+        <v>42749</v>
       </c>
       <c r="AI31" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42701</v>
+        <v>42750</v>
       </c>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.3">
@@ -9127,13 +9129,13 @@
       <c r="B36" s="17">
         <v>5</v>
       </c>
-      <c r="C36" s="17">
+      <c r="C36" s="17" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="D36" s="17" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D36" s="17" t="e">
         <f ca="1">INDEX(Activities[アクティビティ],MATCH($C36,Activities[Id],0))</f>
-        <v>プロジェクトの開始</v>
+        <v>#N/A</v>
       </c>
       <c r="E36" s="17" t="e">
         <f ca="1">GridCalc</f>
@@ -9270,11 +9272,11 @@
       </c>
       <c r="C37" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D37" s="17" t="str">
         <f ca="1">INDEX(Activities[アクティビティ],MATCH($C37,Activities[Id],0))</f>
-        <v>インタープリタ（池田）</v>
+        <v>プロジェクトの開始</v>
       </c>
       <c r="E37" s="17" t="e">
         <f ca="1">GridCalc</f>
@@ -9415,7 +9417,7 @@
       </c>
       <c r="D38" s="17" t="str">
         <f ca="1">INDEX(Activities[アクティビティ],MATCH($C38,Activities[Id],0))</f>
-        <v>インタープリタ結合テスト（池田・宮上・藤田）</v>
+        <v>インタープリタ結合テスト（藤田・池田・宮上）</v>
       </c>
       <c r="E38" s="17" t="e">
         <f ca="1">GridCalc</f>
@@ -9827,123 +9829,123 @@
     <row r="43" spans="1:35" x14ac:dyDescent="0.3">
       <c r="E43" s="18">
         <f ca="1">E31</f>
-        <v>42671</v>
+        <v>42720</v>
       </c>
       <c r="F43" s="18">
         <f t="shared" ref="F43:AH43" ca="1" si="4">F31</f>
-        <v>42672</v>
+        <v>42721</v>
       </c>
       <c r="G43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42673</v>
+        <v>42722</v>
       </c>
       <c r="H43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42674</v>
+        <v>42723</v>
       </c>
       <c r="I43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42675</v>
+        <v>42724</v>
       </c>
       <c r="J43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42676</v>
+        <v>42725</v>
       </c>
       <c r="K43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42677</v>
+        <v>42726</v>
       </c>
       <c r="L43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42678</v>
+        <v>42727</v>
       </c>
       <c r="M43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42679</v>
+        <v>42728</v>
       </c>
       <c r="N43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42680</v>
+        <v>42729</v>
       </c>
       <c r="O43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42681</v>
+        <v>42730</v>
       </c>
       <c r="P43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42682</v>
+        <v>42731</v>
       </c>
       <c r="Q43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42683</v>
+        <v>42732</v>
       </c>
       <c r="R43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42684</v>
+        <v>42733</v>
       </c>
       <c r="S43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42685</v>
+        <v>42734</v>
       </c>
       <c r="T43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42686</v>
+        <v>42735</v>
       </c>
       <c r="U43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42687</v>
+        <v>42736</v>
       </c>
       <c r="V43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42688</v>
+        <v>42737</v>
       </c>
       <c r="W43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42689</v>
+        <v>42738</v>
       </c>
       <c r="X43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42690</v>
+        <v>42739</v>
       </c>
       <c r="Y43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42691</v>
+        <v>42740</v>
       </c>
       <c r="Z43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42692</v>
+        <v>42741</v>
       </c>
       <c r="AA43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42693</v>
+        <v>42742</v>
       </c>
       <c r="AB43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42694</v>
+        <v>42743</v>
       </c>
       <c r="AC43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42695</v>
+        <v>42744</v>
       </c>
       <c r="AD43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42696</v>
+        <v>42745</v>
       </c>
       <c r="AE43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42697</v>
+        <v>42746</v>
       </c>
       <c r="AF43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42698</v>
+        <v>42747</v>
       </c>
       <c r="AG43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42699</v>
+        <v>42748</v>
       </c>
       <c r="AH43" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>42700</v>
+        <v>42749</v>
       </c>
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.3">
@@ -10467,13 +10469,13 @@
       </c>
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="C48" s="17">
+      <c r="C48" s="17" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="D48" s="17" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D48" s="17" t="e">
         <f ca="1">UPPER(INDEX(Activities[アクティビティ],MATCH($C48,Activities[Id],0)))</f>
-        <v>プロジェクトの開始</v>
+        <v>#N/A</v>
       </c>
       <c r="E48" s="17" t="e">
         <f t="shared" ref="E48:AH48" ca="1" si="10">IF(ISERROR(F36),E36,NA())</f>
@@ -10599,11 +10601,11 @@
     <row r="49" spans="3:34" x14ac:dyDescent="0.3">
       <c r="C49" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D49" s="17" t="str">
         <f ca="1">UPPER(INDEX(Activities[アクティビティ],MATCH($C49,Activities[Id],0)))</f>
-        <v>インタープリタ（池田）</v>
+        <v>プロジェクトの開始</v>
       </c>
       <c r="E49" s="17" t="e">
         <f t="shared" ref="E49:AH49" ca="1" si="11">IF(ISERROR(F37),E37,NA())</f>
@@ -10733,7 +10735,7 @@
       </c>
       <c r="D50" s="17" t="str">
         <f ca="1">UPPER(INDEX(Activities[アクティビティ],MATCH($C50,Activities[Id],0)))</f>
-        <v>インタープリタ結合テスト（池田・宮上・藤田）</v>
+        <v>インタープリタ結合テスト（藤田・池田・宮上）</v>
       </c>
       <c r="E50" s="17" t="e">
         <f t="shared" ref="E50:AH50" ca="1" si="12">IF(ISERROR(F38),E38,NA())</f>
@@ -11119,123 +11121,123 @@
     <row r="55" spans="3:34" x14ac:dyDescent="0.3">
       <c r="E55" s="18">
         <f ca="1">E31</f>
-        <v>42671</v>
+        <v>42720</v>
       </c>
       <c r="F55" s="18">
         <f t="shared" ref="F55:AH55" ca="1" si="15">F31</f>
-        <v>42672</v>
+        <v>42721</v>
       </c>
       <c r="G55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42673</v>
+        <v>42722</v>
       </c>
       <c r="H55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42674</v>
+        <v>42723</v>
       </c>
       <c r="I55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42675</v>
+        <v>42724</v>
       </c>
       <c r="J55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42676</v>
+        <v>42725</v>
       </c>
       <c r="K55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42677</v>
+        <v>42726</v>
       </c>
       <c r="L55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42678</v>
+        <v>42727</v>
       </c>
       <c r="M55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42679</v>
+        <v>42728</v>
       </c>
       <c r="N55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42680</v>
+        <v>42729</v>
       </c>
       <c r="O55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42681</v>
+        <v>42730</v>
       </c>
       <c r="P55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42682</v>
+        <v>42731</v>
       </c>
       <c r="Q55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42683</v>
+        <v>42732</v>
       </c>
       <c r="R55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42684</v>
+        <v>42733</v>
       </c>
       <c r="S55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42685</v>
+        <v>42734</v>
       </c>
       <c r="T55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42686</v>
+        <v>42735</v>
       </c>
       <c r="U55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42687</v>
+        <v>42736</v>
       </c>
       <c r="V55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42688</v>
+        <v>42737</v>
       </c>
       <c r="W55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42689</v>
+        <v>42738</v>
       </c>
       <c r="X55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42690</v>
+        <v>42739</v>
       </c>
       <c r="Y55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42691</v>
+        <v>42740</v>
       </c>
       <c r="Z55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42692</v>
+        <v>42741</v>
       </c>
       <c r="AA55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42693</v>
+        <v>42742</v>
       </c>
       <c r="AB55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42694</v>
+        <v>42743</v>
       </c>
       <c r="AC55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42695</v>
+        <v>42744</v>
       </c>
       <c r="AD55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42696</v>
+        <v>42745</v>
       </c>
       <c r="AE55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42697</v>
+        <v>42746</v>
       </c>
       <c r="AF55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42698</v>
+        <v>42747</v>
       </c>
       <c r="AG55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42699</v>
+        <v>42748</v>
       </c>
       <c r="AH55" s="18">
         <f t="shared" ca="1" si="15"/>
-        <v>42700</v>
+        <v>42749</v>
       </c>
     </row>
     <row r="56" spans="3:34" x14ac:dyDescent="0.3">
@@ -11366,7 +11368,7 @@
     <row r="58" spans="3:34" x14ac:dyDescent="0.3">
       <c r="D58" s="20">
         <f ca="1">DATE(YEAR(MIN(E55:AH55)),MONTH(MIN(E55:AH55)),1)</f>
-        <v>42644</v>
+        <v>42705</v>
       </c>
       <c r="E58" s="17">
         <f ca="1">IF(MEDIAN($D58,E$55,EOMONTH($D58,0))=E$55,0.5,NA())</f>
@@ -11384,53 +11386,53 @@
         <f t="shared" ca="1" si="17"/>
         <v>0.5</v>
       </c>
-      <c r="I58" s="17" t="e">
+      <c r="I58" s="17">
         <f t="shared" ca="1" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J58" s="17" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="J58" s="17">
         <f t="shared" ca="1" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K58" s="17" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="K58" s="17">
         <f t="shared" ca="1" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L58" s="17" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="L58" s="17">
         <f t="shared" ca="1" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M58" s="17" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="M58" s="17">
         <f t="shared" ca="1" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N58" s="17" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="N58" s="17">
         <f t="shared" ca="1" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O58" s="17" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="O58" s="17">
         <f t="shared" ca="1" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P58" s="17" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="P58" s="17">
         <f t="shared" ca="1" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q58" s="17" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="Q58" s="17">
         <f t="shared" ca="1" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R58" s="17" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="R58" s="17">
         <f t="shared" ca="1" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S58" s="17" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="S58" s="17">
         <f t="shared" ca="1" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T58" s="17" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="T58" s="17">
         <f t="shared" ca="1" si="17"/>
-        <v>#N/A</v>
+        <v>0.5</v>
       </c>
       <c r="U58" s="17" t="e">
         <f t="shared" ca="1" si="17"/>
@@ -11492,7 +11494,7 @@
     <row r="59" spans="3:34" x14ac:dyDescent="0.3">
       <c r="D59" s="20" t="str">
         <f ca="1">TEXT(D58,"yyyy年 m月 ") &amp; " - Top Band"</f>
-        <v>2016年 10月  - Top Band</v>
+        <v>2016年 12月  - Top Band</v>
       </c>
       <c r="E59" s="17">
         <f ca="1">E58+12.5</f>
@@ -11510,53 +11512,53 @@
         <f t="shared" ca="1" si="18"/>
         <v>13</v>
       </c>
-      <c r="I59" s="17" t="e">
+      <c r="I59" s="17">
         <f t="shared" ca="1" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J59" s="17" t="e">
+        <v>13</v>
+      </c>
+      <c r="J59" s="17">
         <f t="shared" ca="1" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K59" s="17" t="e">
+        <v>13</v>
+      </c>
+      <c r="K59" s="17">
         <f t="shared" ca="1" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L59" s="17" t="e">
+        <v>13</v>
+      </c>
+      <c r="L59" s="17">
         <f t="shared" ca="1" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M59" s="17" t="e">
+        <v>13</v>
+      </c>
+      <c r="M59" s="17">
         <f t="shared" ca="1" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N59" s="17" t="e">
+        <v>13</v>
+      </c>
+      <c r="N59" s="17">
         <f t="shared" ca="1" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O59" s="17" t="e">
+        <v>13</v>
+      </c>
+      <c r="O59" s="17">
         <f t="shared" ca="1" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P59" s="17" t="e">
+        <v>13</v>
+      </c>
+      <c r="P59" s="17">
         <f t="shared" ca="1" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q59" s="17" t="e">
+        <v>13</v>
+      </c>
+      <c r="Q59" s="17">
         <f t="shared" ca="1" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R59" s="17" t="e">
+        <v>13</v>
+      </c>
+      <c r="R59" s="17">
         <f t="shared" ca="1" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S59" s="17" t="e">
+        <v>13</v>
+      </c>
+      <c r="S59" s="17">
         <f t="shared" ca="1" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T59" s="17" t="e">
+        <v>13</v>
+      </c>
+      <c r="T59" s="17">
         <f t="shared" ca="1" si="18"/>
-        <v>#N/A</v>
+        <v>13</v>
       </c>
       <c r="U59" s="17" t="e">
         <f t="shared" ca="1" si="18"/>
@@ -11621,7 +11623,7 @@
     <row r="61" spans="3:34" x14ac:dyDescent="0.3">
       <c r="D61" s="20">
         <f ca="1">EOMONTH(D58,0)+1</f>
-        <v>42675</v>
+        <v>42736</v>
       </c>
       <c r="E61" s="17" t="e">
         <f ca="1">IF(MEDIAN($D61,E$55,EOMONTH($D61,0))=E$55,0.5,NA())</f>
@@ -11639,53 +11641,53 @@
         <f t="shared" ca="1" si="19"/>
         <v>#N/A</v>
       </c>
-      <c r="I61" s="17">
+      <c r="I61" s="17" t="e">
         <f t="shared" ca="1" si="19"/>
-        <v>0.5</v>
-      </c>
-      <c r="J61" s="17">
+        <v>#N/A</v>
+      </c>
+      <c r="J61" s="17" t="e">
         <f t="shared" ca="1" si="19"/>
-        <v>0.5</v>
-      </c>
-      <c r="K61" s="17">
+        <v>#N/A</v>
+      </c>
+      <c r="K61" s="17" t="e">
         <f t="shared" ca="1" si="19"/>
-        <v>0.5</v>
-      </c>
-      <c r="L61" s="17">
+        <v>#N/A</v>
+      </c>
+      <c r="L61" s="17" t="e">
         <f t="shared" ca="1" si="19"/>
-        <v>0.5</v>
-      </c>
-      <c r="M61" s="17">
+        <v>#N/A</v>
+      </c>
+      <c r="M61" s="17" t="e">
         <f t="shared" ca="1" si="19"/>
-        <v>0.5</v>
-      </c>
-      <c r="N61" s="17">
+        <v>#N/A</v>
+      </c>
+      <c r="N61" s="17" t="e">
         <f t="shared" ca="1" si="19"/>
-        <v>0.5</v>
-      </c>
-      <c r="O61" s="17">
+        <v>#N/A</v>
+      </c>
+      <c r="O61" s="17" t="e">
         <f t="shared" ca="1" si="19"/>
-        <v>0.5</v>
-      </c>
-      <c r="P61" s="17">
+        <v>#N/A</v>
+      </c>
+      <c r="P61" s="17" t="e">
         <f t="shared" ca="1" si="19"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q61" s="17">
+        <v>#N/A</v>
+      </c>
+      <c r="Q61" s="17" t="e">
         <f t="shared" ca="1" si="19"/>
-        <v>0.5</v>
-      </c>
-      <c r="R61" s="17">
+        <v>#N/A</v>
+      </c>
+      <c r="R61" s="17" t="e">
         <f t="shared" ca="1" si="19"/>
-        <v>0.5</v>
-      </c>
-      <c r="S61" s="17">
+        <v>#N/A</v>
+      </c>
+      <c r="S61" s="17" t="e">
         <f t="shared" ca="1" si="19"/>
-        <v>0.5</v>
-      </c>
-      <c r="T61" s="17">
+        <v>#N/A</v>
+      </c>
+      <c r="T61" s="17" t="e">
         <f t="shared" ca="1" si="19"/>
-        <v>0.5</v>
+        <v>#N/A</v>
       </c>
       <c r="U61" s="17">
         <f t="shared" ca="1" si="19"/>
@@ -11747,7 +11749,7 @@
     <row r="62" spans="3:34" x14ac:dyDescent="0.3">
       <c r="D62" s="20" t="str">
         <f ca="1">TEXT(D61,"yyyy年 m月") &amp; " - Top Band"</f>
-        <v>2016年 11月 - Top Band</v>
+        <v>2017年 1月 - Top Band</v>
       </c>
       <c r="E62" s="17" t="e">
         <f ca="1">E61+12.5</f>
@@ -11765,53 +11767,53 @@
         <f t="shared" ca="1" si="20"/>
         <v>#N/A</v>
       </c>
-      <c r="I62" s="17">
+      <c r="I62" s="17" t="e">
         <f t="shared" ca="1" si="20"/>
-        <v>13</v>
-      </c>
-      <c r="J62" s="17">
+        <v>#N/A</v>
+      </c>
+      <c r="J62" s="17" t="e">
         <f t="shared" ca="1" si="20"/>
-        <v>13</v>
-      </c>
-      <c r="K62" s="17">
+        <v>#N/A</v>
+      </c>
+      <c r="K62" s="17" t="e">
         <f t="shared" ca="1" si="20"/>
-        <v>13</v>
-      </c>
-      <c r="L62" s="17">
+        <v>#N/A</v>
+      </c>
+      <c r="L62" s="17" t="e">
         <f t="shared" ca="1" si="20"/>
-        <v>13</v>
-      </c>
-      <c r="M62" s="17">
+        <v>#N/A</v>
+      </c>
+      <c r="M62" s="17" t="e">
         <f t="shared" ca="1" si="20"/>
-        <v>13</v>
-      </c>
-      <c r="N62" s="17">
+        <v>#N/A</v>
+      </c>
+      <c r="N62" s="17" t="e">
         <f t="shared" ca="1" si="20"/>
-        <v>13</v>
-      </c>
-      <c r="O62" s="17">
+        <v>#N/A</v>
+      </c>
+      <c r="O62" s="17" t="e">
         <f t="shared" ca="1" si="20"/>
-        <v>13</v>
-      </c>
-      <c r="P62" s="17">
+        <v>#N/A</v>
+      </c>
+      <c r="P62" s="17" t="e">
         <f t="shared" ca="1" si="20"/>
-        <v>13</v>
-      </c>
-      <c r="Q62" s="17">
+        <v>#N/A</v>
+      </c>
+      <c r="Q62" s="17" t="e">
         <f t="shared" ca="1" si="20"/>
-        <v>13</v>
-      </c>
-      <c r="R62" s="17">
+        <v>#N/A</v>
+      </c>
+      <c r="R62" s="17" t="e">
         <f t="shared" ca="1" si="20"/>
-        <v>13</v>
-      </c>
-      <c r="S62" s="17">
+        <v>#N/A</v>
+      </c>
+      <c r="S62" s="17" t="e">
         <f t="shared" ca="1" si="20"/>
-        <v>13</v>
-      </c>
-      <c r="T62" s="17">
+        <v>#N/A</v>
+      </c>
+      <c r="T62" s="17" t="e">
         <f t="shared" ca="1" si="20"/>
-        <v>13</v>
+        <v>#N/A</v>
       </c>
       <c r="U62" s="17">
         <f t="shared" ca="1" si="20"/>
@@ -11876,7 +11878,7 @@
     <row r="65" spans="4:34" x14ac:dyDescent="0.3">
       <c r="D65" s="20">
         <f ca="1">D58+1</f>
-        <v>42645</v>
+        <v>42706</v>
       </c>
       <c r="E65" s="17" t="e">
         <f ca="1">IF(MEDIAN($D65,E$55)=E$55,0.5,NA())</f>
@@ -12002,7 +12004,7 @@
     <row r="66" spans="4:34" x14ac:dyDescent="0.3">
       <c r="D66" s="20">
         <f ca="1">D61+1</f>
-        <v>42676</v>
+        <v>42737</v>
       </c>
       <c r="E66" s="17" t="e">
         <f ca="1">IF(MEDIAN($D66,E$55)=E$55,0.5,NA())</f>
@@ -12024,57 +12026,57 @@
         <f t="shared" ca="1" si="21"/>
         <v>#N/A</v>
       </c>
-      <c r="J66" s="17">
+      <c r="J66" s="17" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K66" s="17" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L66" s="17" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M66" s="17" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N66" s="17" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="O66" s="17" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P66" s="17" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q66" s="17" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R66" s="17" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S66" s="17" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T66" s="17" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U66" s="17" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V66" s="17">
         <f t="shared" ca="1" si="21"/>
         <v>0.5</v>
-      </c>
-      <c r="K66" s="17" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L66" s="17" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M66" s="17" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N66" s="17" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O66" s="17" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P66" s="17" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q66" s="17" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R66" s="17" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S66" s="17" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T66" s="17" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U66" s="17" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V66" s="17" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#N/A</v>
       </c>
       <c r="W66" s="17" t="e">
         <f t="shared" ca="1" si="21"/>
@@ -12495,123 +12497,123 @@
     <row r="72" spans="4:34" x14ac:dyDescent="0.3">
       <c r="E72" s="17" t="str">
         <f ca="1">TEXT(E55,"dd")</f>
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F72" s="17" t="str">
         <f t="shared" ref="F72:AH72" ca="1" si="24">TEXT(F55,"dd")</f>
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="I72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>01</v>
+        <v>20</v>
       </c>
       <c r="J72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>02</v>
+        <v>21</v>
       </c>
       <c r="K72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>03</v>
+        <v>22</v>
       </c>
       <c r="L72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>04</v>
+        <v>23</v>
       </c>
       <c r="M72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>05</v>
+        <v>24</v>
       </c>
       <c r="N72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>06</v>
+        <v>25</v>
       </c>
       <c r="O72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>07</v>
+        <v>26</v>
       </c>
       <c r="P72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>08</v>
+        <v>27</v>
       </c>
       <c r="Q72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>09</v>
+        <v>28</v>
       </c>
       <c r="R72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="S72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="T72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="U72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>13</v>
+        <v>01</v>
       </c>
       <c r="V72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>14</v>
+        <v>02</v>
       </c>
       <c r="W72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>15</v>
+        <v>03</v>
       </c>
       <c r="X72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>16</v>
+        <v>04</v>
       </c>
       <c r="Y72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>17</v>
+        <v>05</v>
       </c>
       <c r="Z72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>18</v>
+        <v>06</v>
       </c>
       <c r="AA72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>19</v>
+        <v>07</v>
       </c>
       <c r="AB72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>20</v>
+        <v>08</v>
       </c>
       <c r="AC72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>21</v>
+        <v>09</v>
       </c>
       <c r="AD72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="AE72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="AF72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="AG72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="AH72" s="17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
